--- a/reports/Reporte-APS-Mallas.xlsx
+++ b/reports/Reporte-APS-Mallas.xlsx
@@ -5,14 +5,14 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="108" sheetId="1" r:id="rId1"/>
-    <sheet name="301" sheetId="2" r:id="rId2"/>
+    <sheet name="ALI-G" sheetId="1" r:id="rId1"/>
+    <sheet name="INN-R" sheetId="2" r:id="rId2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="215">
   <si>
     <t>Alianza Compañía de Seguros y Reaseguros S.A.</t>
   </si>
@@ -65,10 +65,589 @@
     <t>RECURSOS DE INVERSIÓN ADMISIBLES</t>
   </si>
   <si>
+    <t>En % (RIR)</t>
+  </si>
+  <si>
+    <t>Límite Máx.</t>
+  </si>
+  <si>
+    <t>Resultado</t>
+  </si>
+  <si>
+    <t>30.00%</t>
+  </si>
+  <si>
+    <t>30%</t>
+  </si>
+  <si>
+    <t>CUMPLE</t>
+  </si>
+  <si>
+    <t>5.00%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>93.32%</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t> -   Recursos de Inversión Admisibles</t>
+  </si>
+  <si>
+    <t>128.32%</t>
+  </si>
+  <si>
+    <t> -   Exceso Absoluto</t>
+  </si>
+  <si>
+    <t>28.32%</t>
+  </si>
+  <si>
+    <t> -   Menos: Previsión contable</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t> -   Exceso Final</t>
+  </si>
+  <si>
     <t>CARTERA DE INVERSIONES POR TIPO GENÉRICO DE VALOR</t>
   </si>
   <si>
+    <t>Detalle</t>
+  </si>
+  <si>
+    <t> Acciones</t>
+  </si>
+  <si>
+    <t>7.45 %</t>
+  </si>
+  <si>
+    <t>35   %</t>
+  </si>
+  <si>
+    <t>Acciones</t>
+  </si>
+  <si>
+    <t> Deuda Bancaria + Patrimonios Autonomos (CFC + VTD)</t>
+  </si>
+  <si>
+    <t>73.82%</t>
+  </si>
+  <si>
+    <t>80   %</t>
+  </si>
+  <si>
+    <t>Deuda Bancaria</t>
+  </si>
+  <si>
+    <t>64.27%</t>
+  </si>
+  <si>
+    <t>70   %</t>
+  </si>
+  <si>
+    <t>Corto Plazo</t>
+  </si>
+  <si>
+    <t>24.77%</t>
+  </si>
+  <si>
+    <t>45   %</t>
+  </si>
+  <si>
+    <t>Bonos Bancarios Bursátiles</t>
+  </si>
+  <si>
+    <t>DPFs</t>
+  </si>
+  <si>
+    <t>Largo Plazo</t>
+  </si>
+  <si>
+    <t>39.49%</t>
+  </si>
+  <si>
+    <t>Patrimonios Autónomos</t>
+  </si>
+  <si>
+    <t>9.56 %</t>
+  </si>
+  <si>
+    <t>40   %</t>
+  </si>
+  <si>
+    <t>Cuotas de Fondos de Inversión Cerrados</t>
+  </si>
+  <si>
+    <t>Representativos de Deuda Sociedades Comeraciales</t>
+  </si>
+  <si>
+    <t>12.04%</t>
+  </si>
+  <si>
+    <t>30   %</t>
+  </si>
+  <si>
+    <t>Bonos Corporativos</t>
+  </si>
+  <si>
+    <t>Pagarés Bursátiles</t>
+  </si>
+  <si>
+    <t>TOTAL CARTERA DE INVERSIONES POR TIPO GENÉRICO DE VALOR</t>
+  </si>
+  <si>
     <t>CARTERA DE INVERSIONES POR CONCENTRACIÓN EN PROPIEDAD</t>
+  </si>
+  <si>
+    <t>ALI</t>
+  </si>
+  <si>
+    <t>3.81%</t>
+  </si>
+  <si>
+    <t>10   %</t>
+  </si>
+  <si>
+    <t>BEC</t>
+  </si>
+  <si>
+    <t>4.84%</t>
+  </si>
+  <si>
+    <t>BGA</t>
+  </si>
+  <si>
+    <t>9.62%</t>
+  </si>
+  <si>
+    <t>BIL</t>
+  </si>
+  <si>
+    <t>0.23%</t>
+  </si>
+  <si>
+    <t>BIS</t>
+  </si>
+  <si>
+    <t>1.78%</t>
+  </si>
+  <si>
+    <t>BME</t>
+  </si>
+  <si>
+    <t>8.47%</t>
+  </si>
+  <si>
+    <t>BNB</t>
+  </si>
+  <si>
+    <t>0.21%</t>
+  </si>
+  <si>
+    <t>BSO</t>
+  </si>
+  <si>
+    <t>1.26%</t>
+  </si>
+  <si>
+    <t>BTB</t>
+  </si>
+  <si>
+    <t>8.08%</t>
+  </si>
+  <si>
+    <t>BUN</t>
+  </si>
+  <si>
+    <t>7.68%</t>
+  </si>
+  <si>
+    <t>CGF</t>
+  </si>
+  <si>
+    <t>2.11%</t>
+  </si>
+  <si>
+    <t>CRF</t>
+  </si>
+  <si>
+    <t>4.79%</t>
+  </si>
+  <si>
+    <t>DIV</t>
+  </si>
+  <si>
+    <t>1.30%</t>
+  </si>
+  <si>
+    <t>EXP</t>
+  </si>
+  <si>
+    <t>1.06%</t>
+  </si>
+  <si>
+    <t>FEF</t>
+  </si>
+  <si>
+    <t>5.57%</t>
+  </si>
+  <si>
+    <t>FFO</t>
+  </si>
+  <si>
+    <t>0.79%</t>
+  </si>
+  <si>
+    <t>FIE</t>
+  </si>
+  <si>
+    <t>4.42%</t>
+  </si>
+  <si>
+    <t>FIN</t>
+  </si>
+  <si>
+    <t>0.95%</t>
+  </si>
+  <si>
+    <t>FSL</t>
+  </si>
+  <si>
+    <t>6.28%</t>
+  </si>
+  <si>
+    <t>ICT</t>
+  </si>
+  <si>
+    <t>INC</t>
+  </si>
+  <si>
+    <t>0.16%</t>
+  </si>
+  <si>
+    <t>JSF</t>
+  </si>
+  <si>
+    <t>0.89%</t>
+  </si>
+  <si>
+    <t>NFB</t>
+  </si>
+  <si>
+    <t>8.92%</t>
+  </si>
+  <si>
+    <t>NIB</t>
+  </si>
+  <si>
+    <t>NUT</t>
+  </si>
+  <si>
+    <t>0.45%</t>
+  </si>
+  <si>
+    <t>PAR</t>
+  </si>
+  <si>
+    <t>0.20%</t>
+  </si>
+  <si>
+    <t>POL</t>
+  </si>
+  <si>
+    <t>2.52%</t>
+  </si>
+  <si>
+    <t>SBC</t>
+  </si>
+  <si>
+    <t>1.60%</t>
+  </si>
+  <si>
+    <t>SFI</t>
+  </si>
+  <si>
+    <t>0.14%</t>
+  </si>
+  <si>
+    <t>SOC</t>
+  </si>
+  <si>
+    <t>2.32%</t>
+  </si>
+  <si>
+    <t>TSM</t>
+  </si>
+  <si>
+    <t>1.66%</t>
+  </si>
+  <si>
+    <t>TOTAL CARTERA POR EMISOR</t>
+  </si>
+  <si>
+    <t>93.33%</t>
+  </si>
+  <si>
+    <t>CARTERA DE INVERSIONES POR EMISIÓN</t>
+  </si>
+  <si>
+    <t>Serie</t>
+  </si>
+  <si>
+    <t>Val. Nominal</t>
+  </si>
+  <si>
+    <t>En % (Emisión)</t>
+  </si>
+  <si>
+    <t>ACC</t>
+  </si>
+  <si>
+    <t>15.81%</t>
+  </si>
+  <si>
+    <t>20%</t>
+  </si>
+  <si>
+    <t>BGA1A</t>
+  </si>
+  <si>
+    <t>18.69%</t>
+  </si>
+  <si>
+    <t>BGA1B</t>
+  </si>
+  <si>
+    <t>4.56%</t>
+  </si>
+  <si>
+    <t>BGA1C</t>
+  </si>
+  <si>
+    <t>5.41%</t>
+  </si>
+  <si>
+    <t>BGA1D</t>
+  </si>
+  <si>
+    <t>6.51%</t>
+  </si>
+  <si>
+    <t>BGA1E</t>
+  </si>
+  <si>
+    <t>16.40%</t>
+  </si>
+  <si>
+    <t>BNB1U</t>
+  </si>
+  <si>
+    <t>0.04%</t>
+  </si>
+  <si>
+    <t>BBB</t>
+  </si>
+  <si>
+    <t>0.11%</t>
+  </si>
+  <si>
+    <t>33%</t>
+  </si>
+  <si>
+    <t>BEC-3-N2U-16</t>
+  </si>
+  <si>
+    <t>0.15%</t>
+  </si>
+  <si>
+    <t>BGA-1-N1A-18</t>
+  </si>
+  <si>
+    <t>1.18%</t>
+  </si>
+  <si>
+    <t>BME-1-E1C-17</t>
+  </si>
+  <si>
+    <t>2.47%</t>
+  </si>
+  <si>
+    <t>BME-1-N2B-15</t>
+  </si>
+  <si>
+    <t>4.18%</t>
+  </si>
+  <si>
+    <t>BME-1-N3B-15</t>
+  </si>
+  <si>
+    <t>1.72%</t>
+  </si>
+  <si>
+    <t>BME-2-E1B-19</t>
+  </si>
+  <si>
+    <t>0.85%</t>
+  </si>
+  <si>
+    <t>BME-2-N3B-16</t>
+  </si>
+  <si>
+    <t>0.65%</t>
+  </si>
+  <si>
+    <t>BTB-N1U-13</t>
+  </si>
+  <si>
+    <t>5.43%</t>
+  </si>
+  <si>
+    <t>FIE-N1B-14</t>
+  </si>
+  <si>
+    <t>1.02%</t>
+  </si>
+  <si>
+    <t>BLP</t>
+  </si>
+  <si>
+    <t>FIN-4-N2U-19</t>
+  </si>
+  <si>
+    <t>ICT-1-N1A-20</t>
+  </si>
+  <si>
+    <t>6.59%</t>
+  </si>
+  <si>
+    <t>JSF-1-E1B-19</t>
+  </si>
+  <si>
+    <t>4.52%</t>
+  </si>
+  <si>
+    <t>NIB-1-N1B-19</t>
+  </si>
+  <si>
+    <t>0.74%</t>
+  </si>
+  <si>
+    <t>PAR-1-N1U-16</t>
+  </si>
+  <si>
+    <t>0.36%</t>
+  </si>
+  <si>
+    <t>POL-3-E1U-20</t>
+  </si>
+  <si>
+    <t>1.39%</t>
+  </si>
+  <si>
+    <t>SBC-7-N1U-16</t>
+  </si>
+  <si>
+    <t>0.18%</t>
+  </si>
+  <si>
+    <t>SBC-7-N1U-18</t>
+  </si>
+  <si>
+    <t>4.31%</t>
+  </si>
+  <si>
+    <t>SBC-7-N2U-19</t>
+  </si>
+  <si>
+    <t>0.84%</t>
+  </si>
+  <si>
+    <t>SOC-N1U-20</t>
+  </si>
+  <si>
+    <t>1.45%</t>
+  </si>
+  <si>
+    <t>CFC</t>
+  </si>
+  <si>
+    <t>3.29%</t>
+  </si>
+  <si>
+    <t>CRF-N1U-15</t>
+  </si>
+  <si>
+    <t>2.59%</t>
+  </si>
+  <si>
+    <t>DIV-E1U-18</t>
+  </si>
+  <si>
+    <t>0.66%</t>
+  </si>
+  <si>
+    <t>EXP-N1U-18</t>
+  </si>
+  <si>
+    <t>0.44%</t>
+  </si>
+  <si>
+    <t>INC-N1B-16</t>
+  </si>
+  <si>
+    <t>0.17%</t>
+  </si>
+  <si>
+    <t>SFI-N1U-17</t>
+  </si>
+  <si>
+    <t>0.03%</t>
+  </si>
+  <si>
+    <t>PGB</t>
+  </si>
+  <si>
+    <t>1.01%</t>
+  </si>
+  <si>
+    <t>POL-PB1-E13U</t>
+  </si>
+  <si>
+    <t>34.08%</t>
+  </si>
+  <si>
+    <t>NO CUMPLE</t>
+  </si>
+  <si>
+    <t>TSM-PB2-E2U</t>
+  </si>
+  <si>
+    <t>12.61%</t>
+  </si>
+  <si>
+    <t>CARTERA DE INVERSIONES LÍMITES POR CATEGORÍA Y NIVELES DE RIESGO</t>
+  </si>
+  <si>
+    <t>Categoría de Riesgo BB1, BB2 y N3</t>
+  </si>
+  <si>
+    <t>Categoría de Riesgo BBB1, BBB2, BBB3 y N2</t>
+  </si>
+  <si>
+    <t>60%</t>
+  </si>
+  <si>
+    <t>Total Cartera</t>
+  </si>
+  <si>
+    <t>70%</t>
   </si>
   <si>
     <t>Innovasalud Servicios en Salud S.A.</t>
@@ -128,7 +707,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -137,16 +716,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="hair">
+      <left style="dashed">
         <color rgb="FF000000"/>
       </left>
-      <right style="hair">
+      <right style="dashed">
         <color rgb="FF000000"/>
       </right>
-      <top style="hair">
+      <top style="dashed">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="hair">
+      <bottom style="dashed">
         <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
@@ -159,142 +738,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="hair">
+      <left style="dashed">
         <color rgb="FF000000"/>
       </left>
-      <right style="hair">
+      <right style="dashed">
         <color rgb="FF000000"/>
       </right>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="hair">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="hair">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="hair">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick"/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="hair">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="hair">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="hair">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="hair">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="hair">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="hair">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="hair">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="hair">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="hair">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="hair">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="hair">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thick">
+      <bottom style="dashed">
         <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
@@ -307,13 +760,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="hair">
+      <left style="dashed">
         <color rgb="FF000000"/>
       </left>
-      <right style="hair">
+      <right style="dashed">
         <color rgb="FF000000"/>
       </right>
-      <top style="medium">
+      <top style="dashed">
         <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
@@ -332,13 +785,13 @@
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
-      <right style="hair">
+      <right style="dashed">
         <color rgb="FF000000"/>
       </right>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="hair">
+      <bottom style="dashed">
         <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
@@ -347,10 +800,25 @@
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
-      <right style="hair">
+      <right style="dashed">
         <color rgb="FF000000"/>
       </right>
-      <top style="medium">
+      <top style="dashed">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="dashed">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="dashed">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="dashed">
         <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
@@ -366,7 +834,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="hair">
+      <left style="dashed">
         <color rgb="FF000000"/>
       </left>
       <right style="medium">
@@ -375,31 +843,184 @@
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="hair">
+      <bottom style="dashed">
         <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="hair">
+      <left style="dashed">
         <color rgb="FF000000"/>
       </left>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
-      <top style="medium">
+      <top style="dashed">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="dashed">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="dashed">
         <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="dashed">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="dashed">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="dashed">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="dashed">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="dashed">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="dashed">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="dashed">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="dashed">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="dashed">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium"/>
+      <right style="hair"/>
+      <top style="medium"/>
+      <bottom style="medium"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium"/>
+      <top style="medium"/>
+      <bottom style="medium"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium"/>
+      <right style="thin"/>
+      <top/>
+      <bottom style="dashed"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="medium"/>
+      <top/>
+      <bottom style="dashed"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium"/>
+      <right style="thin"/>
+      <top style="medium"/>
+      <bottom style="medium"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="medium"/>
+      <top style="medium"/>
+      <bottom style="medium"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium"/>
+      <right style="thin"/>
+      <top/>
+      <bottom style="medium"/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="83">
     <xf applyFont="1" fontId="0"/>
     <xf applyFont="1" fontId="0" applyBorder="1" borderId="1"/>
     <xf applyFont="1" fontId="0" applyBorder="1" borderId="2"/>
@@ -423,23 +1044,31 @@
     <xf applyFont="1" fontId="2" applyBorder="1" borderId="3" applyNumberFormat="1" numFmtId="164" applyAlignment="1">
       <alignment horizontal="left" shrinkToFit="1" wrapText="1"/>
     </xf>
-    <xf applyFont="1" fontId="2" applyBorder="1" borderId="3" applyNumberFormat="1" numFmtId="164" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1" wrapText="1"/>
+    <xf applyFont="1" fontId="0" applyBorder="1" borderId="14"/>
+    <xf applyFont="1" fontId="2" applyBorder="1" borderId="15" applyNumberFormat="1" numFmtId="164" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1" vertical="center" wrapText="1"/>
     </xf>
     <xf applyFont="1" fontId="2" applyBorder="1" borderId="11" applyNumberFormat="1" numFmtId="164" applyAlignment="1">
       <alignment horizontal="left" shrinkToFit="1" wrapText="1"/>
     </xf>
     <xf applyFont="1" fontId="2" applyBorder="1" borderId="11" applyNumberFormat="1" numFmtId="164" applyAlignment="1">
-      <alignment horizontal="right" shrinkToFit="1" wrapText="1"/>
+      <alignment horizontal="right" shrinkToFit="1" vertical="center" wrapText="1"/>
     </xf>
     <xf applyFont="1" fontId="2" applyBorder="1" borderId="8" applyNumberFormat="1" numFmtId="164" applyAlignment="1">
       <alignment horizontal="left" shrinkToFit="1" wrapText="1"/>
     </xf>
+    <xf applyFont="1" fontId="2" applyBorder="1" borderId="1" applyNumberFormat="1" numFmtId="164" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1" wrapText="1"/>
+    </xf>
     <xf applyFont="1" fontId="2" applyBorder="1" borderId="12" applyNumberFormat="1" numFmtId="164" applyAlignment="1">
       <alignment horizontal="left" shrinkToFit="1" wrapText="1"/>
     </xf>
-    <xf applyFont="1" fontId="2" applyBorder="1" borderId="12" applyNumberFormat="1" numFmtId="164" applyAlignment="1">
-      <alignment horizontal="right" shrinkToFit="1" wrapText="1"/>
+    <xf applyFont="1" fontId="0" applyBorder="1" borderId="16"/>
+    <xf applyFont="1" fontId="2" applyBorder="1" borderId="17" applyNumberFormat="1" numFmtId="164" applyAlignment="1">
+      <alignment horizontal="right" shrinkToFit="1" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyFont="1" fontId="2" applyBorder="1" borderId="18" applyNumberFormat="1" numFmtId="164" applyAlignment="1">
+      <alignment horizontal="right" shrinkToFit="1" vertical="center" wrapText="1"/>
     </xf>
     <xf applyFont="1" fontId="2" applyBorder="1" borderId="9" applyNumberFormat="1" numFmtId="164" applyAlignment="1">
       <alignment horizontal="left" shrinkToFit="1" wrapText="1"/>
@@ -451,79 +1080,134 @@
       <alignment horizontal="left" shrinkToFit="1" wrapText="1"/>
     </xf>
     <xf applyFont="1" fontId="2" applyBorder="1" borderId="5" applyNumberFormat="1" numFmtId="164" applyAlignment="1">
-      <alignment horizontal="right" shrinkToFit="1" wrapText="1"/>
+      <alignment horizontal="right" shrinkToFit="1" vertical="center" wrapText="1"/>
     </xf>
     <xf applyFont="1" fontId="2" applyBorder="1" borderId="13" applyNumberFormat="1" numFmtId="164" applyAlignment="1">
-      <alignment horizontal="right" shrinkToFit="1" wrapText="1"/>
-    </xf>
-    <xf applyFont="1" fontId="0" applyFill="1" fillId="2"/>
-    <xf applyFont="1" fontId="2" applyFill="1" fillId="2" applyBorder="1" borderId="5" applyNumberFormat="1" numFmtId="164" applyAlignment="1">
-      <alignment horizontal="right" shrinkToFit="1" wrapText="1"/>
-    </xf>
-    <xf applyFont="1" fontId="2" applyFill="1" fillId="2" applyBorder="1" borderId="13" applyNumberFormat="1" numFmtId="164" applyAlignment="1">
-      <alignment horizontal="right" shrinkToFit="1" wrapText="1"/>
+      <alignment horizontal="right" shrinkToFit="1" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyFont="1" fontId="0" applyFill="1" fillId="2" applyBorder="1" borderId="16"/>
+    <xf applyFont="1" fontId="2" applyFill="1" fillId="2" applyBorder="1" borderId="19" applyNumberFormat="1" numFmtId="164" applyAlignment="1">
+      <alignment horizontal="right" shrinkToFit="1" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyFont="1" fontId="2" applyFill="1" fillId="2" applyBorder="1" borderId="20" applyNumberFormat="1" numFmtId="164" applyAlignment="1">
+      <alignment horizontal="right" shrinkToFit="1" vertical="center" wrapText="1"/>
     </xf>
     <xf applyFont="1" fontId="2" applyNumberFormat="1" numFmtId="164" applyAlignment="1">
       <alignment horizontal="left" shrinkToFit="1" wrapText="1"/>
     </xf>
-    <xf applyFont="1" fontId="2" applyNumberFormat="1" numFmtId="164" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1" wrapText="1"/>
+    <xf applyFont="1" fontId="0" applyBorder="1" borderId="21"/>
+    <xf applyFont="1" fontId="2" applyBorder="1" borderId="21" applyNumberFormat="1" numFmtId="164" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyFont="1" fontId="0" applyBorder="1" borderId="22"/>
+    <xf applyFont="1" fontId="2" applyBorder="1" borderId="22" applyNumberFormat="1" numFmtId="164" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1" vertical="center" wrapText="1"/>
     </xf>
     <xf applyFont="1" fontId="2" applyNumberFormat="1" numFmtId="164" applyAlignment="1">
       <alignment horizontal="left" indent="1" relativeIndent="3" shrinkToFit="1" wrapText="1"/>
     </xf>
+    <xf applyFont="1" fontId="0" applyBorder="1" borderId="23"/>
+    <xf applyFont="1" fontId="2" applyBorder="1" borderId="23" applyNumberFormat="1" numFmtId="164" applyAlignment="1">
+      <alignment horizontal="left" indent="1" relativeIndent="3" shrinkToFit="1" wrapText="1"/>
+    </xf>
     <xf applyFont="1" fontId="3"/>
     <xf applyFont="1" fontId="3" applyNumberFormat="1" numFmtId="164" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1" wrapText="1"/>
-    </xf>
-    <xf applyFont="1" fontId="3" applyNumberFormat="1" numFmtId="164" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyFont="1" fontId="0" applyBorder="1" borderId="24"/>
+    <xf applyFont="1" fontId="3" applyBorder="1" borderId="24" applyNumberFormat="1" numFmtId="164" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyFont="1" fontId="0" applyBorder="1" borderId="25"/>
+    <xf applyFont="1" fontId="2" applyBorder="1" borderId="25" applyNumberFormat="1" numFmtId="164" applyAlignment="1">
+      <alignment horizontal="left" indent="1" relativeIndent="3" shrinkToFit="1" wrapText="1"/>
+    </xf>
+    <xf applyFont="1" fontId="2" applyBorder="1" borderId="26"/>
+    <xf applyFont="1" fontId="2" applyBorder="1" borderId="26" applyNumberFormat="1" numFmtId="164" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyFont="1" fontId="3" applyNumberFormat="1" numFmtId="164" applyAlignment="1">
       <alignment horizontal="left" indent="5" relativeIndent="3" shrinkToFit="1" wrapText="1"/>
     </xf>
-    <xf applyFont="1" fontId="2" applyBorder="1" borderId="1" applyNumberFormat="1" numFmtId="164" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1" wrapText="1"/>
-    </xf>
-    <xf applyFont="1" fontId="2" applyBorder="1" borderId="1" applyNumberFormat="1" numFmtId="164" applyAlignment="1">
+    <xf applyFont="1" fontId="3" applyBorder="1" borderId="23" applyNumberFormat="1" numFmtId="164" applyAlignment="1">
+      <alignment horizontal="left" indent="5" relativeIndent="3" shrinkToFit="1" wrapText="1"/>
+    </xf>
+    <xf applyFont="1" fontId="0" applyFill="1" fillId="2" applyBorder="1" borderId="4"/>
+    <xf applyFont="1" fontId="2" applyFill="1" fillId="2" applyBorder="1" borderId="26" applyNumberFormat="1" numFmtId="164" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyFont="1" fontId="3" applyBorder="1" borderId="23"/>
+    <xf applyFont="1" fontId="3" applyBorder="1" borderId="23" applyNumberFormat="1" numFmtId="164" applyAlignment="1">
       <alignment horizontal="left" indent="1" relativeIndent="3" shrinkToFit="1" wrapText="1"/>
     </xf>
-    <xf applyFont="1" fontId="3" applyBorder="1" borderId="1" applyNumberFormat="1" numFmtId="164" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1" wrapText="1"/>
-    </xf>
-    <xf applyFont="1" fontId="3" applyBorder="1" borderId="1" applyNumberFormat="1" numFmtId="164" applyAlignment="1">
-      <alignment horizontal="left" indent="5" relativeIndent="3" shrinkToFit="1" wrapText="1"/>
-    </xf>
-    <xf applyFont="1" fontId="2" applyBorder="1" borderId="3" applyNumberFormat="1" numFmtId="164" applyAlignment="1">
+    <xf applyFont="1" fontId="3" applyBorder="1" borderId="24"/>
+    <xf applyFont="1" fontId="2" applyBorder="1" borderId="25"/>
+    <xf applyFont="1" fontId="2" applyBorder="1" borderId="4"/>
+    <xf applyFont="1" fontId="2" applyBorder="1" borderId="27" applyNumberFormat="1" numFmtId="164" applyAlignment="1">
       <alignment horizontal="left" indent="1" relativeIndent="3" shrinkToFit="1" wrapText="1"/>
     </xf>
-    <xf applyFont="1" fontId="3" applyBorder="1" borderId="3" applyNumberFormat="1" numFmtId="164" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1" wrapText="1"/>
-    </xf>
-    <xf applyFont="1" fontId="3" applyBorder="1" borderId="3" applyNumberFormat="1" numFmtId="164" applyAlignment="1">
-      <alignment horizontal="left" indent="5" relativeIndent="3" shrinkToFit="1" wrapText="1"/>
-    </xf>
-    <xf applyFont="1" fontId="0" applyBorder="1" borderId="14"/>
-    <xf applyFont="1" fontId="0" applyBorder="1" borderId="15"/>
-    <xf applyFont="1" fontId="0" applyBorder="1" borderId="16"/>
-    <xf applyFont="1" fontId="2" applyBorder="1" borderId="17" applyNumberFormat="1" numFmtId="164" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1" wrapText="1"/>
-    </xf>
-    <xf applyFont="1" fontId="2" applyBorder="1" borderId="17" applyNumberFormat="1" numFmtId="164" applyAlignment="1">
-      <alignment horizontal="left" indent="1" relativeIndent="3" shrinkToFit="1" wrapText="1"/>
-    </xf>
-    <xf applyFont="1" fontId="3" applyBorder="1" borderId="17" applyNumberFormat="1" numFmtId="164" applyAlignment="1">
-      <alignment horizontal="left" indent="5" relativeIndent="3" shrinkToFit="1" wrapText="1"/>
-    </xf>
-    <xf applyFont="1" fontId="0" applyBorder="1" borderId="18"/>
-    <xf applyFont="1" fontId="0" applyBorder="1" borderId="19"/>
-    <xf applyFont="1" fontId="2" applyBorder="1" borderId="20" applyNumberFormat="1" numFmtId="164" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1" wrapText="1"/>
-    </xf>
-    <xf applyFont="1" fontId="3" applyBorder="1" borderId="20" applyNumberFormat="1" numFmtId="164" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1" wrapText="1"/>
-    </xf>
-    <xf applyFont="1" fontId="0" applyBorder="1" borderId="21"/>
+    <xf applyFont="1" fontId="2" applyBorder="1" borderId="25" applyNumberFormat="1" numFmtId="164" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1" wrapText="1"/>
+    </xf>
+    <xf applyFont="1" fontId="2" applyBorder="1" borderId="25" applyNumberFormat="1" numFmtId="164" applyAlignment="1">
+      <alignment horizontal="left" indent="1" relativeIndent="2" shrinkToFit="1" wrapText="1"/>
+    </xf>
+    <xf applyFont="1" fontId="2"/>
+    <xf applyFont="1" fontId="2" applyBorder="1" borderId="25" applyNumberFormat="1" numFmtId="164" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyFont="1" fontId="3" applyBorder="1" borderId="25" applyNumberFormat="1" numFmtId="164" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1" wrapText="1"/>
+    </xf>
+    <xf applyFont="1" fontId="3" applyBorder="1" borderId="25" applyNumberFormat="1" numFmtId="164" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyFont="1" fontId="2" applyBorder="1" borderId="23" applyNumberFormat="1" numFmtId="164" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1" wrapText="1"/>
+    </xf>
+    <xf applyFont="1" fontId="2" applyBorder="1" borderId="23" applyNumberFormat="1" numFmtId="164" applyAlignment="1">
+      <alignment horizontal="left" indent="3" relativeIndent="3" shrinkToFit="1" wrapText="1"/>
+    </xf>
+    <xf applyFont="1" fontId="3" applyBorder="1" borderId="23" applyNumberFormat="1" numFmtId="164" applyAlignment="1">
+      <alignment horizontal="left" indent="3" relativeIndent="3" shrinkToFit="1" wrapText="1"/>
+    </xf>
+    <xf applyFont="1" fontId="3" applyBorder="1" borderId="23" applyNumberFormat="1" numFmtId="164" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1" wrapText="1"/>
+    </xf>
+    <xf applyFont="1" fontId="3" applyBorder="1" borderId="23" applyNumberFormat="1" numFmtId="164" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyFont="1" fontId="2" applyBorder="1" borderId="23" applyNumberFormat="1" numFmtId="164" applyAlignment="1">
+      <alignment horizontal="left" indent="2" relativeIndent="3" shrinkToFit="1" wrapText="1"/>
+    </xf>
+    <xf applyFont="1" fontId="2" applyBorder="1" borderId="23" applyNumberFormat="1" numFmtId="164" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyFont="1" fontId="0" applyFill="1" fillId="2"/>
+    <xf applyFont="1" fontId="2" applyFill="1" fillId="2" applyBorder="1" borderId="25" applyNumberFormat="1" numFmtId="164" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1" wrapText="1"/>
+    </xf>
+    <xf applyFont="1" fontId="2" applyFill="1" fillId="2" applyBorder="1" borderId="25" applyNumberFormat="1" numFmtId="164" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyFont="1" fontId="3" applyFill="1" fillId="2" applyBorder="1" borderId="25" applyNumberFormat="1" numFmtId="164" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1" wrapText="1"/>
+    </xf>
+    <xf applyFont="1" fontId="3" applyBorder="1" borderId="27" applyNumberFormat="1" numFmtId="164" applyAlignment="1">
+      <alignment horizontal="left" indent="3" relativeIndent="3" shrinkToFit="1" wrapText="1"/>
+    </xf>
+    <xf applyFont="1" fontId="2" applyBorder="1" borderId="27" applyNumberFormat="1" numFmtId="164" applyAlignment="1">
+      <alignment horizontal="left" indent="3" relativeIndent="3" shrinkToFit="1" wrapText="1"/>
+    </xf>
+    <xf applyFont="1" fontId="3" applyBorder="1" borderId="27" applyNumberFormat="1" numFmtId="164" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyFont="1" fontId="3" applyFill="1" fillId="2" applyBorder="1" borderId="27" applyNumberFormat="1" numFmtId="164" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyFont="1" fontId="2" applyFill="1" fillId="2" applyBorder="1" borderId="27" applyNumberFormat="1" numFmtId="164" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -533,16 +1217,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:E125"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="70" customWidth="1"/>
-    <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="2" max="2" width="25" customWidth="1"/>
+    <col min="3" max="3" width="25" customWidth="1"/>
+    <col min="4" max="4" width="25" customWidth="1"/>
+    <col min="5" max="5" width="25" customWidth="1"/>
+    <col min="6" max="6" width="25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -562,146 +1248,1847 @@
       <c r="A4" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="19" t="n">
+      <c r="C4" s="20" t="n">
         <v>6.86</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="22" t="n">
+      <c r="B5" s="25" t="n">
         <v>312198803.96</v>
       </c>
+      <c r="C5" s="26"/>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="29" t="n">
+      <c r="B6" s="33" t="n">
         <v>45510029.73</v>
       </c>
-      <c r="C6" s="30"/>
+      <c r="C6" s="34"/>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="48" t="s">
+      <c r="A8" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="53" t="s">
+      <c r="B8" s="39" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="49" t="s">
+      <c r="A9" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="54" t="n">
+      <c r="B9" s="46" t="n">
         <v>14633005.03</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="49" t="s">
+      <c r="A10" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="54" t="n">
+      <c r="B10" s="46" t="n">
         <v>1400876.37</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="49" t="s">
+      <c r="A11" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="54" t="n">
+      <c r="B11" s="46" t="n">
         <v>6783170.16</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="49" t="s">
+      <c r="A12" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="54" t="n">
+      <c r="B12" s="46" t="n">
         <v>5438988.29</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="49" t="s">
+      <c r="A13" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="54" t="n">
+      <c r="B13" s="50" t="n">
         <v>46454071.43</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="50" t="s">
+      <c r="A14" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="54" t="n">
+      <c r="B14" s="46" t="n">
         <v>42470170.66</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="50" t="s">
+      <c r="A15" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="54" t="n">
+      <c r="B15" s="46" t="n">
         <v>3983900.78</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="49" t="s">
+      <c r="A16" s="48" t="s">
         <v>15</v>
       </c>
       <c r="B16" s="54" t="n">
         <v>74710111.29</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="51"/>
-      <c r="B17" s="55"/>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="48" t="s">
+    <row r="18" spans="1:5">
+      <c r="A18" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="53" t="s">
+      <c r="B18" s="39" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="51"/>
-      <c r="B20" s="55"/>
-    </row>
-    <row r="22" spans="1:2">
+      <c r="C18" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="39" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="56" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="46" t="n">
+        <v>13653008.92</v>
+      </c>
+      <c r="C19" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="46" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="46" t="n">
+        <v>2275501.49</v>
+      </c>
+      <c r="C20" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="46" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="56" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="46" t="n">
+        <v>42470170.66</v>
+      </c>
+      <c r="C21" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="46" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="50" t="n">
+        <v>58398681.07</v>
+      </c>
+      <c r="C22" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" s="46" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="56" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="46" t="n">
+        <v>12888651.34</v>
+      </c>
+      <c r="C23" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" s="46" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="60" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24" s="46" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="48" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" s="54" t="n">
+        <v>12888651.34</v>
+      </c>
+      <c r="C25" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" s="54" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" s="54" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" s="37"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="37"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="53" t="s">
+      <c r="D28" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="E28" s="39" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="62" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" s="64" t="n">
+        <v>3391537.77</v>
+      </c>
+      <c r="C29" s="66" t="s">
+        <v>37</v>
+      </c>
+      <c r="D29" s="66" t="s">
+        <v>38</v>
+      </c>
+      <c r="E29" s="66" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="69" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" s="71" t="n">
+        <v>3391537.77</v>
+      </c>
+      <c r="C30" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="E30" s="71" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="62" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31" s="64" t="n">
+        <v>33597347.82</v>
+      </c>
+      <c r="C31" s="66" t="s">
+        <v>41</v>
+      </c>
+      <c r="D31" s="66" t="s">
+        <v>42</v>
+      </c>
+      <c r="E31" s="66" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="62" t="s">
+        <v>43</v>
+      </c>
+      <c r="B32" s="64" t="n">
+        <v>29247144.12</v>
+      </c>
+      <c r="C32" s="66" t="s">
+        <v>44</v>
+      </c>
+      <c r="D32" s="66" t="s">
+        <v>45</v>
+      </c>
+      <c r="E32" s="66" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="72" t="s">
+        <v>46</v>
+      </c>
+      <c r="B33" s="73" t="n">
+        <v>11275058.19</v>
+      </c>
+      <c r="C33" s="71" t="s">
+        <v>47</v>
+      </c>
+      <c r="D33" s="71" t="s">
+        <v>48</v>
+      </c>
+      <c r="E33" s="71" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="69" t="s">
+        <v>49</v>
+      </c>
+      <c r="B34" s="71" t="n">
+        <v>1536145.83</v>
+      </c>
+      <c r="C34" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="D34" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="E34" s="71" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="69" t="s">
+        <v>50</v>
+      </c>
+      <c r="B35" s="71" t="n">
+        <v>9738912.36</v>
+      </c>
+      <c r="C35" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="D35" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="E35" s="71" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="72" t="s">
+        <v>51</v>
+      </c>
+      <c r="B36" s="73" t="n">
+        <v>17972085.93</v>
+      </c>
+      <c r="C36" s="71" t="s">
+        <v>52</v>
+      </c>
+      <c r="D36" s="71" t="s">
+        <v>48</v>
+      </c>
+      <c r="E36" s="71" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="69" t="s">
+        <v>49</v>
+      </c>
+      <c r="B37" s="71" t="n">
+        <v>1841439.36</v>
+      </c>
+      <c r="C37" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="D37" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="E37" s="71" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="69" t="s">
+        <v>50</v>
+      </c>
+      <c r="B38" s="71" t="n">
+        <v>16130646.57</v>
+      </c>
+      <c r="C38" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="D38" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="E38" s="71" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="62" t="s">
+        <v>53</v>
+      </c>
+      <c r="B39" s="64" t="n">
+        <v>4350203.7</v>
+      </c>
+      <c r="C39" s="66" t="s">
+        <v>54</v>
+      </c>
+      <c r="D39" s="66" t="s">
+        <v>55</v>
+      </c>
+      <c r="E39" s="66" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="69" t="s">
+        <v>56</v>
+      </c>
+      <c r="B40" s="71" t="n">
+        <v>4350203.7</v>
+      </c>
+      <c r="C40" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="D40" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="E40" s="71" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="62" t="s">
+        <v>57</v>
+      </c>
+      <c r="B41" s="64" t="n">
+        <v>5481284.96</v>
+      </c>
+      <c r="C41" s="66" t="s">
+        <v>58</v>
+      </c>
+      <c r="D41" s="66" t="s">
+        <v>59</v>
+      </c>
+      <c r="E41" s="66" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="69" t="s">
+        <v>60</v>
+      </c>
+      <c r="B42" s="71" t="n">
+        <v>3499730.96</v>
+      </c>
+      <c r="C42" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="D42" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="E42" s="71" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="69" t="s">
+        <v>61</v>
+      </c>
+      <c r="B43" s="71" t="n">
+        <v>1981554</v>
+      </c>
+      <c r="C43" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="D43" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="E43" s="71" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="62" t="s">
+        <v>62</v>
+      </c>
+      <c r="B44" s="76" t="n">
+        <v>42470170.55</v>
+      </c>
+      <c r="C44" s="76" t="s">
+        <v>25</v>
+      </c>
+      <c r="D44" s="76" t="s">
+        <v>26</v>
+      </c>
+      <c r="E44" s="76" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="B46" s="37"/>
+      <c r="C46" s="37"/>
+      <c r="D46" s="37"/>
+      <c r="E46" s="37"/>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="B47" s="39" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="51"/>
-      <c r="B23" s="55"/>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="48" t="s">
+      <c r="C47" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="D47" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="53" t="s">
+      <c r="E47" s="39" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="56" t="s">
+        <v>64</v>
+      </c>
+      <c r="B48" s="46" t="n">
+        <v>1732906.92</v>
+      </c>
+      <c r="C48" s="46" t="s">
+        <v>65</v>
+      </c>
+      <c r="D48" s="46" t="s">
+        <v>66</v>
+      </c>
+      <c r="E48" s="46" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="56" t="s">
+        <v>67</v>
+      </c>
+      <c r="B49" s="46" t="n">
+        <v>2203068.99</v>
+      </c>
+      <c r="C49" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="D49" s="46" t="s">
+        <v>66</v>
+      </c>
+      <c r="E49" s="46" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="56" t="s">
+        <v>69</v>
+      </c>
+      <c r="B50" s="46" t="n">
+        <v>4375993.21</v>
+      </c>
+      <c r="C50" s="46" t="s">
+        <v>70</v>
+      </c>
+      <c r="D50" s="46" t="s">
+        <v>66</v>
+      </c>
+      <c r="E50" s="46" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="56" t="s">
+        <v>71</v>
+      </c>
+      <c r="B51" s="46" t="n">
+        <v>102918.73</v>
+      </c>
+      <c r="C51" s="46" t="s">
+        <v>72</v>
+      </c>
+      <c r="D51" s="46" t="s">
+        <v>66</v>
+      </c>
+      <c r="E51" s="46" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="56" t="s">
+        <v>73</v>
+      </c>
+      <c r="B52" s="46" t="n">
+        <v>808004.38</v>
+      </c>
+      <c r="C52" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="D52" s="46" t="s">
+        <v>66</v>
+      </c>
+      <c r="E52" s="46" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="56" t="s">
+        <v>75</v>
+      </c>
+      <c r="B53" s="46" t="n">
+        <v>3854963.95</v>
+      </c>
+      <c r="C53" s="46" t="s">
+        <v>76</v>
+      </c>
+      <c r="D53" s="46" t="s">
+        <v>66</v>
+      </c>
+      <c r="E53" s="46" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="56" t="s">
+        <v>77</v>
+      </c>
+      <c r="B54" s="46" t="n">
+        <v>94903.79</v>
+      </c>
+      <c r="C54" s="46" t="s">
+        <v>78</v>
+      </c>
+      <c r="D54" s="46" t="s">
+        <v>66</v>
+      </c>
+      <c r="E54" s="46" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="56" t="s">
+        <v>79</v>
+      </c>
+      <c r="B55" s="46" t="n">
+        <v>574559.05</v>
+      </c>
+      <c r="C55" s="46" t="s">
+        <v>80</v>
+      </c>
+      <c r="D55" s="46" t="s">
+        <v>66</v>
+      </c>
+      <c r="E55" s="46" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="56" t="s">
+        <v>81</v>
+      </c>
+      <c r="B56" s="46" t="n">
+        <v>3675452.76</v>
+      </c>
+      <c r="C56" s="46" t="s">
+        <v>82</v>
+      </c>
+      <c r="D56" s="46" t="s">
+        <v>66</v>
+      </c>
+      <c r="E56" s="46" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="56" t="s">
+        <v>83</v>
+      </c>
+      <c r="B57" s="46" t="n">
+        <v>3493693.84</v>
+      </c>
+      <c r="C57" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="D57" s="46" t="s">
+        <v>66</v>
+      </c>
+      <c r="E57" s="46" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="56" t="s">
+        <v>85</v>
+      </c>
+      <c r="B58" s="46" t="n">
+        <v>959965.23</v>
+      </c>
+      <c r="C58" s="46" t="s">
+        <v>86</v>
+      </c>
+      <c r="D58" s="46" t="s">
+        <v>66</v>
+      </c>
+      <c r="E58" s="46" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="56" t="s">
+        <v>87</v>
+      </c>
+      <c r="B59" s="46" t="n">
+        <v>2179330.41</v>
+      </c>
+      <c r="C59" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="D59" s="46" t="s">
+        <v>66</v>
+      </c>
+      <c r="E59" s="46" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="56" t="s">
+        <v>89</v>
+      </c>
+      <c r="B60" s="46" t="n">
+        <v>589694.22</v>
+      </c>
+      <c r="C60" s="46" t="s">
+        <v>90</v>
+      </c>
+      <c r="D60" s="46" t="s">
+        <v>66</v>
+      </c>
+      <c r="E60" s="46" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="56" t="s">
+        <v>91</v>
+      </c>
+      <c r="B61" s="46" t="n">
+        <v>481987.83</v>
+      </c>
+      <c r="C61" s="46" t="s">
+        <v>92</v>
+      </c>
+      <c r="D61" s="46" t="s">
+        <v>66</v>
+      </c>
+      <c r="E61" s="46" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="56" t="s">
+        <v>93</v>
+      </c>
+      <c r="B62" s="46" t="n">
+        <v>2534501.56</v>
+      </c>
+      <c r="C62" s="46" t="s">
+        <v>94</v>
+      </c>
+      <c r="D62" s="46" t="s">
+        <v>66</v>
+      </c>
+      <c r="E62" s="46" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="56" t="s">
+        <v>95</v>
+      </c>
+      <c r="B63" s="46" t="n">
+        <v>359420.87</v>
+      </c>
+      <c r="C63" s="46" t="s">
+        <v>96</v>
+      </c>
+      <c r="D63" s="46" t="s">
+        <v>66</v>
+      </c>
+      <c r="E63" s="46" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="56" t="s">
+        <v>97</v>
+      </c>
+      <c r="B64" s="46" t="n">
+        <v>2010443.87</v>
+      </c>
+      <c r="C64" s="46" t="s">
+        <v>98</v>
+      </c>
+      <c r="D64" s="46" t="s">
+        <v>66</v>
+      </c>
+      <c r="E64" s="46" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="56" t="s">
+        <v>99</v>
+      </c>
+      <c r="B65" s="46" t="n">
+        <v>434588.92</v>
+      </c>
+      <c r="C65" s="46" t="s">
+        <v>100</v>
+      </c>
+      <c r="D65" s="46" t="s">
+        <v>66</v>
+      </c>
+      <c r="E65" s="46" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="56" t="s">
+        <v>101</v>
+      </c>
+      <c r="B66" s="46" t="n">
+        <v>2859566.66</v>
+      </c>
+      <c r="C66" s="46" t="s">
+        <v>102</v>
+      </c>
+      <c r="D66" s="46" t="s">
+        <v>66</v>
+      </c>
+      <c r="E66" s="46" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="56" t="s">
+        <v>103</v>
+      </c>
+      <c r="B67" s="46" t="n">
+        <v>480334.84</v>
+      </c>
+      <c r="C67" s="46" t="s">
+        <v>92</v>
+      </c>
+      <c r="D67" s="46" t="s">
+        <v>66</v>
+      </c>
+      <c r="E67" s="46" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="56" t="s">
+        <v>104</v>
+      </c>
+      <c r="B68" s="46" t="n">
+        <v>74538.63</v>
+      </c>
+      <c r="C68" s="46" t="s">
+        <v>105</v>
+      </c>
+      <c r="D68" s="46" t="s">
+        <v>66</v>
+      </c>
+      <c r="E68" s="46" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="56" t="s">
+        <v>106</v>
+      </c>
+      <c r="B69" s="46" t="n">
+        <v>406944.8</v>
+      </c>
+      <c r="C69" s="46" t="s">
+        <v>107</v>
+      </c>
+      <c r="D69" s="46" t="s">
+        <v>66</v>
+      </c>
+      <c r="E69" s="46" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="56" t="s">
+        <v>108</v>
+      </c>
+      <c r="B70" s="46" t="n">
+        <v>4061202.04</v>
+      </c>
+      <c r="C70" s="46" t="s">
+        <v>109</v>
+      </c>
+      <c r="D70" s="46" t="s">
+        <v>66</v>
+      </c>
+      <c r="E70" s="46" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="56" t="s">
+        <v>110</v>
+      </c>
+      <c r="B71" s="46" t="n">
+        <v>74164.59</v>
+      </c>
+      <c r="C71" s="46" t="s">
+        <v>105</v>
+      </c>
+      <c r="D71" s="46" t="s">
+        <v>66</v>
+      </c>
+      <c r="E71" s="46" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="56" t="s">
+        <v>111</v>
+      </c>
+      <c r="B72" s="46" t="n">
+        <v>202964</v>
+      </c>
+      <c r="C72" s="46" t="s">
+        <v>112</v>
+      </c>
+      <c r="D72" s="46" t="s">
+        <v>66</v>
+      </c>
+      <c r="E72" s="46" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="56" t="s">
+        <v>113</v>
+      </c>
+      <c r="B73" s="46" t="n">
+        <v>89989.11</v>
+      </c>
+      <c r="C73" s="46" t="s">
+        <v>114</v>
+      </c>
+      <c r="D73" s="46" t="s">
+        <v>66</v>
+      </c>
+      <c r="E73" s="46" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="56" t="s">
+        <v>115</v>
+      </c>
+      <c r="B74" s="46" t="n">
+        <v>1147492.48</v>
+      </c>
+      <c r="C74" s="46" t="s">
+        <v>116</v>
+      </c>
+      <c r="D74" s="46" t="s">
+        <v>66</v>
+      </c>
+      <c r="E74" s="46" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="56" t="s">
+        <v>117</v>
+      </c>
+      <c r="B75" s="46" t="n">
+        <v>729695.25</v>
+      </c>
+      <c r="C75" s="46" t="s">
+        <v>118</v>
+      </c>
+      <c r="D75" s="46" t="s">
+        <v>66</v>
+      </c>
+      <c r="E75" s="46" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="56" t="s">
+        <v>119</v>
+      </c>
+      <c r="B76" s="46" t="n">
+        <v>64687.38</v>
+      </c>
+      <c r="C76" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="D76" s="46" t="s">
+        <v>66</v>
+      </c>
+      <c r="E76" s="46" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="56" t="s">
+        <v>121</v>
+      </c>
+      <c r="B77" s="46" t="n">
+        <v>1055892.24</v>
+      </c>
+      <c r="C77" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="D77" s="46" t="s">
+        <v>66</v>
+      </c>
+      <c r="E77" s="46" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="56" t="s">
+        <v>123</v>
+      </c>
+      <c r="B78" s="46" t="n">
+        <v>756300</v>
+      </c>
+      <c r="C78" s="46" t="s">
+        <v>124</v>
+      </c>
+      <c r="D78" s="46" t="s">
+        <v>66</v>
+      </c>
+      <c r="E78" s="46" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="48" t="s">
+        <v>125</v>
+      </c>
+      <c r="B79" s="54" t="n">
+        <v>42470170.55</v>
+      </c>
+      <c r="C79" s="54" t="s">
+        <v>126</v>
+      </c>
+      <c r="D79" s="54" t="s">
+        <v>26</v>
+      </c>
+      <c r="E79" s="54" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="37" t="s">
+        <v>127</v>
+      </c>
+      <c r="B81" s="37"/>
+      <c r="C81" s="37"/>
+      <c r="D81" s="37"/>
+      <c r="E81" s="37"/>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="37" t="s">
+        <v>128</v>
+      </c>
+      <c r="B82" s="39" t="s">
+        <v>129</v>
+      </c>
+      <c r="C82" s="39" t="s">
+        <v>130</v>
+      </c>
+      <c r="D82" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="E82" s="39" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="62" t="s">
+        <v>131</v>
+      </c>
+      <c r="B83" s="64" t="n">
+        <v>1732906.92</v>
+      </c>
+      <c r="C83" s="66" t="s">
+        <v>132</v>
+      </c>
+      <c r="D83" s="66" t="s">
+        <v>133</v>
+      </c>
+      <c r="E83" s="66" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="69" t="s">
+        <v>134</v>
+      </c>
+      <c r="B84" s="71" t="n">
+        <v>566819.58</v>
+      </c>
+      <c r="C84" s="71" t="s">
+        <v>135</v>
+      </c>
+      <c r="D84" s="71" t="s">
+        <v>133</v>
+      </c>
+      <c r="E84" s="71" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="69" t="s">
+        <v>136</v>
+      </c>
+      <c r="B85" s="71" t="n">
+        <v>138152.58</v>
+      </c>
+      <c r="C85" s="71" t="s">
+        <v>137</v>
+      </c>
+      <c r="D85" s="71" t="s">
+        <v>133</v>
+      </c>
+      <c r="E85" s="71" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" s="69" t="s">
+        <v>138</v>
+      </c>
+      <c r="B86" s="71" t="n">
+        <v>164052.16</v>
+      </c>
+      <c r="C86" s="71" t="s">
+        <v>139</v>
+      </c>
+      <c r="D86" s="71" t="s">
+        <v>133</v>
+      </c>
+      <c r="E86" s="71" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="69" t="s">
+        <v>140</v>
+      </c>
+      <c r="B87" s="71" t="n">
+        <v>197379.29</v>
+      </c>
+      <c r="C87" s="71" t="s">
+        <v>141</v>
+      </c>
+      <c r="D87" s="71" t="s">
+        <v>133</v>
+      </c>
+      <c r="E87" s="71" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="69" t="s">
+        <v>142</v>
+      </c>
+      <c r="B88" s="71" t="n">
+        <v>497323.47</v>
+      </c>
+      <c r="C88" s="71" t="s">
+        <v>143</v>
+      </c>
+      <c r="D88" s="71" t="s">
+        <v>133</v>
+      </c>
+      <c r="E88" s="71" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" s="69" t="s">
+        <v>144</v>
+      </c>
+      <c r="B89" s="71" t="n">
+        <v>94903.79</v>
+      </c>
+      <c r="C89" s="71" t="s">
+        <v>145</v>
+      </c>
+      <c r="D89" s="71" t="s">
+        <v>133</v>
+      </c>
+      <c r="E89" s="71" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" s="62" t="s">
+        <v>146</v>
+      </c>
+      <c r="B90" s="64" t="n">
+        <v>5278.63</v>
+      </c>
+      <c r="C90" s="66" t="s">
+        <v>147</v>
+      </c>
+      <c r="D90" s="66" t="s">
+        <v>148</v>
+      </c>
+      <c r="E90" s="66" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="69" t="s">
+        <v>149</v>
+      </c>
+      <c r="B91" s="71" t="n">
+        <v>8639.94</v>
+      </c>
+      <c r="C91" s="71" t="s">
+        <v>150</v>
+      </c>
+      <c r="D91" s="71" t="s">
+        <v>148</v>
+      </c>
+      <c r="E91" s="71" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" s="69" t="s">
+        <v>151</v>
+      </c>
+      <c r="B92" s="71" t="n">
+        <v>292993.88</v>
+      </c>
+      <c r="C92" s="71" t="s">
+        <v>152</v>
+      </c>
+      <c r="D92" s="71" t="s">
+        <v>148</v>
+      </c>
+      <c r="E92" s="71" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" s="69" t="s">
+        <v>153</v>
+      </c>
+      <c r="B93" s="71" t="n">
+        <v>615300</v>
+      </c>
+      <c r="C93" s="71" t="s">
+        <v>154</v>
+      </c>
+      <c r="D93" s="71" t="s">
+        <v>148</v>
+      </c>
+      <c r="E93" s="71" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" s="69" t="s">
+        <v>155</v>
+      </c>
+      <c r="B94" s="71" t="n">
+        <v>1034666.33</v>
+      </c>
+      <c r="C94" s="71" t="s">
+        <v>156</v>
+      </c>
+      <c r="D94" s="71" t="s">
+        <v>148</v>
+      </c>
+      <c r="E94" s="71" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" s="69" t="s">
+        <v>157</v>
+      </c>
+      <c r="B95" s="71" t="n">
+        <v>426877.46</v>
+      </c>
+      <c r="C95" s="71" t="s">
+        <v>158</v>
+      </c>
+      <c r="D95" s="71" t="s">
+        <v>148</v>
+      </c>
+      <c r="E95" s="71" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" s="69" t="s">
+        <v>159</v>
+      </c>
+      <c r="B96" s="71" t="n">
+        <v>204602.5</v>
+      </c>
+      <c r="C96" s="71" t="s">
+        <v>160</v>
+      </c>
+      <c r="D96" s="71" t="s">
+        <v>148</v>
+      </c>
+      <c r="E96" s="71" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" s="69" t="s">
+        <v>161</v>
+      </c>
+      <c r="B97" s="71" t="n">
+        <v>160314.72</v>
+      </c>
+      <c r="C97" s="71" t="s">
+        <v>162</v>
+      </c>
+      <c r="D97" s="71" t="s">
+        <v>148</v>
+      </c>
+      <c r="E97" s="71" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" s="69" t="s">
+        <v>163</v>
+      </c>
+      <c r="B98" s="71" t="n">
+        <v>554309.69</v>
+      </c>
+      <c r="C98" s="71" t="s">
+        <v>164</v>
+      </c>
+      <c r="D98" s="71" t="s">
+        <v>148</v>
+      </c>
+      <c r="E98" s="71" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" s="69" t="s">
+        <v>165</v>
+      </c>
+      <c r="B99" s="71" t="n">
+        <v>74602.04</v>
+      </c>
+      <c r="C99" s="71" t="s">
+        <v>166</v>
+      </c>
+      <c r="D99" s="71" t="s">
+        <v>148</v>
+      </c>
+      <c r="E99" s="71" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" s="62" t="s">
+        <v>167</v>
+      </c>
+      <c r="B100" s="64" t="n">
+        <v>102918.73</v>
+      </c>
+      <c r="C100" s="66" t="s">
+        <v>152</v>
+      </c>
+      <c r="D100" s="66" t="s">
+        <v>148</v>
+      </c>
+      <c r="E100" s="66" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" s="69" t="s">
+        <v>168</v>
+      </c>
+      <c r="B101" s="71" t="n">
+        <v>434588.92</v>
+      </c>
+      <c r="C101" s="71" t="s">
+        <v>158</v>
+      </c>
+      <c r="D101" s="71" t="s">
+        <v>148</v>
+      </c>
+      <c r="E101" s="71" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" s="69" t="s">
+        <v>169</v>
+      </c>
+      <c r="B102" s="71" t="n">
+        <v>480334.84</v>
+      </c>
+      <c r="C102" s="71" t="s">
+        <v>170</v>
+      </c>
+      <c r="D102" s="71" t="s">
+        <v>148</v>
+      </c>
+      <c r="E102" s="71" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" s="69" t="s">
+        <v>171</v>
+      </c>
+      <c r="B103" s="71" t="n">
+        <v>406944.8</v>
+      </c>
+      <c r="C103" s="71" t="s">
+        <v>172</v>
+      </c>
+      <c r="D103" s="71" t="s">
+        <v>148</v>
+      </c>
+      <c r="E103" s="71" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" s="69" t="s">
+        <v>173</v>
+      </c>
+      <c r="B104" s="71" t="n">
+        <v>74164.59</v>
+      </c>
+      <c r="C104" s="71" t="s">
+        <v>174</v>
+      </c>
+      <c r="D104" s="71" t="s">
+        <v>148</v>
+      </c>
+      <c r="E104" s="71" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" s="69" t="s">
+        <v>175</v>
+      </c>
+      <c r="B105" s="71" t="n">
+        <v>89989.11</v>
+      </c>
+      <c r="C105" s="71" t="s">
+        <v>176</v>
+      </c>
+      <c r="D105" s="71" t="s">
+        <v>148</v>
+      </c>
+      <c r="E105" s="71" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" s="69" t="s">
+        <v>177</v>
+      </c>
+      <c r="B106" s="71" t="n">
+        <v>125202.48</v>
+      </c>
+      <c r="C106" s="71" t="s">
+        <v>178</v>
+      </c>
+      <c r="D106" s="71" t="s">
+        <v>148</v>
+      </c>
+      <c r="E106" s="71" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" s="69" t="s">
+        <v>179</v>
+      </c>
+      <c r="B107" s="71" t="n">
+        <v>83972.01</v>
+      </c>
+      <c r="C107" s="71" t="s">
+        <v>180</v>
+      </c>
+      <c r="D107" s="71" t="s">
+        <v>148</v>
+      </c>
+      <c r="E107" s="71" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" s="69" t="s">
+        <v>181</v>
+      </c>
+      <c r="B108" s="71" t="n">
+        <v>440084.26</v>
+      </c>
+      <c r="C108" s="71" t="s">
+        <v>182</v>
+      </c>
+      <c r="D108" s="71" t="s">
+        <v>148</v>
+      </c>
+      <c r="E108" s="71" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" s="69" t="s">
+        <v>183</v>
+      </c>
+      <c r="B109" s="71" t="n">
+        <v>205638.98</v>
+      </c>
+      <c r="C109" s="71" t="s">
+        <v>184</v>
+      </c>
+      <c r="D109" s="71" t="s">
+        <v>148</v>
+      </c>
+      <c r="E109" s="71" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" s="69" t="s">
+        <v>185</v>
+      </c>
+      <c r="B110" s="71" t="n">
+        <v>1055892.24</v>
+      </c>
+      <c r="C110" s="71" t="s">
+        <v>186</v>
+      </c>
+      <c r="D110" s="71" t="s">
+        <v>148</v>
+      </c>
+      <c r="E110" s="71" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" s="62" t="s">
+        <v>187</v>
+      </c>
+      <c r="B111" s="64" t="n">
+        <v>959965.23</v>
+      </c>
+      <c r="C111" s="66" t="s">
+        <v>188</v>
+      </c>
+      <c r="D111" s="66" t="s">
+        <v>133</v>
+      </c>
+      <c r="E111" s="66" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" s="69" t="s">
+        <v>189</v>
+      </c>
+      <c r="B112" s="71" t="n">
+        <v>2179330.41</v>
+      </c>
+      <c r="C112" s="71" t="s">
+        <v>190</v>
+      </c>
+      <c r="D112" s="71" t="s">
+        <v>133</v>
+      </c>
+      <c r="E112" s="71" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" s="69" t="s">
+        <v>191</v>
+      </c>
+      <c r="B113" s="71" t="n">
+        <v>589694.22</v>
+      </c>
+      <c r="C113" s="71" t="s">
+        <v>192</v>
+      </c>
+      <c r="D113" s="71" t="s">
+        <v>133</v>
+      </c>
+      <c r="E113" s="71" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" s="69" t="s">
+        <v>193</v>
+      </c>
+      <c r="B114" s="71" t="n">
+        <v>481987.83</v>
+      </c>
+      <c r="C114" s="71" t="s">
+        <v>194</v>
+      </c>
+      <c r="D114" s="71" t="s">
+        <v>133</v>
+      </c>
+      <c r="E114" s="71" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115" s="69" t="s">
+        <v>195</v>
+      </c>
+      <c r="B115" s="71" t="n">
+        <v>74538.63</v>
+      </c>
+      <c r="C115" s="71" t="s">
+        <v>196</v>
+      </c>
+      <c r="D115" s="71" t="s">
+        <v>133</v>
+      </c>
+      <c r="E115" s="71" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" s="69" t="s">
+        <v>197</v>
+      </c>
+      <c r="B116" s="71" t="n">
+        <v>64687.38</v>
+      </c>
+      <c r="C116" s="71" t="s">
+        <v>198</v>
+      </c>
+      <c r="D116" s="71" t="s">
+        <v>133</v>
+      </c>
+      <c r="E116" s="71" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117" s="62" t="s">
+        <v>199</v>
+      </c>
+      <c r="B117" s="64" t="n">
+        <v>202964</v>
+      </c>
+      <c r="C117" s="66" t="s">
+        <v>200</v>
+      </c>
+      <c r="D117" s="66" t="s">
+        <v>148</v>
+      </c>
+      <c r="E117" s="66" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118" s="69" t="s">
+        <v>201</v>
+      </c>
+      <c r="B118" s="71" t="n">
+        <v>1022290</v>
+      </c>
+      <c r="C118" s="71" t="s">
+        <v>202</v>
+      </c>
+      <c r="D118" s="71" t="s">
+        <v>148</v>
+      </c>
+      <c r="E118" s="71" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119" s="69" t="s">
+        <v>204</v>
+      </c>
+      <c r="B119" s="71" t="n">
+        <v>756300</v>
+      </c>
+      <c r="C119" s="71" t="s">
+        <v>205</v>
+      </c>
+      <c r="D119" s="71" t="s">
+        <v>148</v>
+      </c>
+      <c r="E119" s="71" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121" s="37" t="s">
+        <v>206</v>
+      </c>
+      <c r="B121" s="37"/>
+      <c r="C121" s="37"/>
+      <c r="D121" s="37"/>
+      <c r="E121" s="37"/>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="B122" s="39" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="51"/>
-      <c r="B26" s="55"/>
+      <c r="C122" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="D122" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="E122" s="39" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123" s="69" t="s">
+        <v>207</v>
+      </c>
+      <c r="B123" s="71" t="n">
+        <v>0</v>
+      </c>
+      <c r="C123" s="71" t="s">
+        <v>32</v>
+      </c>
+      <c r="D123" s="71" t="s">
+        <v>21</v>
+      </c>
+      <c r="E123" s="71" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124" s="69" t="s">
+        <v>208</v>
+      </c>
+      <c r="B124" s="71" t="n">
+        <v>105589224.49</v>
+      </c>
+      <c r="C124" s="71" t="s">
+        <v>122</v>
+      </c>
+      <c r="D124" s="71" t="s">
+        <v>209</v>
+      </c>
+      <c r="E124" s="71" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125" s="79" t="s">
+        <v>210</v>
+      </c>
+      <c r="B125" s="82" t="n">
+        <v>105589224.49</v>
+      </c>
+      <c r="C125" s="82" t="s">
+        <v>122</v>
+      </c>
+      <c r="D125" s="82" t="s">
+        <v>211</v>
+      </c>
+      <c r="E125" s="82" t="s">
+        <v>22</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="6">
+    <mergeCell ref="B5:C5"/>
     <mergeCell ref="B6:C6"/>
+    <mergeCell ref="A27:E27"/>
+    <mergeCell ref="A46:E46"/>
+    <mergeCell ref="A81:E81"/>
+    <mergeCell ref="A121:E121"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -709,21 +3096,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="70" customWidth="1"/>
-    <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="2" max="2" width="25" customWidth="1"/>
+    <col min="3" max="3" width="25" customWidth="1"/>
+    <col min="4" max="4" width="25" customWidth="1"/>
+    <col min="5" max="5" width="25" customWidth="1"/>
+    <col min="6" max="6" width="25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="14" t="s">
-        <v>19</v>
+        <v>212</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -738,53 +3127,50 @@
       <c r="A4" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="19" t="n">
+      <c r="C4" s="20" t="n">
         <v>6.86</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="22" t="n">
+      <c r="B5" s="25" t="n">
         <v>7863461</v>
       </c>
+      <c r="C5" s="26"/>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="29" t="n">
+      <c r="B6" s="33" t="n">
         <v>1146277.11</v>
       </c>
-      <c r="C6" s="30"/>
+      <c r="C6" s="34"/>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="48" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="53" t="s">
+      <c r="A8" s="37" t="s">
+        <v>213</v>
+      </c>
+      <c r="B8" s="39" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="49" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="54" t="n">
+      <c r="A9" s="42" t="s">
+        <v>214</v>
+      </c>
+      <c r="B9" s="46" t="n">
         <v>3983900.78</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="51"/>
-      <c r="B10" s="55"/>
-    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
+    <mergeCell ref="B5:C5"/>
     <mergeCell ref="B6:C6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/reports/Reporte-APS-Mallas.xlsx
+++ b/reports/Reporte-APS-Mallas.xlsx
@@ -6,13 +6,14 @@
   </bookViews>
   <sheets>
     <sheet name="ALI-G" sheetId="1" r:id="rId1"/>
-    <sheet name="INN-R" sheetId="2" r:id="rId2"/>
+    <sheet name="LBC-P" sheetId="2" r:id="rId2"/>
+    <sheet name="INN-R" sheetId="3" r:id="rId3"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="216">
   <si>
     <t>Alianza Compañía de Seguros y Reaseguros S.A.</t>
   </si>
@@ -122,27 +123,18 @@
     <t>Detalle</t>
   </si>
   <si>
-    <t> Acciones</t>
-  </si>
-  <si>
-    <t>7.45 %</t>
-  </si>
-  <si>
-    <t>35   %</t>
+    <t> Deuda Bancaria + Patrimonios Autonomos (CFC + VTD)</t>
+  </si>
+  <si>
+    <t>73.82%</t>
+  </si>
+  <si>
+    <t>80   %</t>
   </si>
   <si>
     <t>Acciones</t>
   </si>
   <si>
-    <t> Deuda Bancaria + Patrimonios Autonomos (CFC + VTD)</t>
-  </si>
-  <si>
-    <t>73.82%</t>
-  </si>
-  <si>
-    <t>80   %</t>
-  </si>
-  <si>
     <t>Deuda Bancaria</t>
   </si>
   <si>
@@ -203,6 +195,9 @@
     <t>TOTAL CARTERA DE INVERSIONES POR TIPO GENÉRICO DE VALOR</t>
   </si>
   <si>
+    <t>85.87%</t>
+  </si>
+  <si>
     <t>CARTERA DE INVERSIONES POR CONCENTRACIÓN EN PROPIEDAD</t>
   </si>
   <si>
@@ -410,6 +405,9 @@
     <t>ACC</t>
   </si>
   <si>
+    <t>ALI1U</t>
+  </si>
+  <si>
     <t>15.81%</t>
   </si>
   <si>
@@ -455,6 +453,9 @@
     <t>BBB</t>
   </si>
   <si>
+    <t>BEC-3-N1U-16</t>
+  </si>
+  <si>
     <t>0.11%</t>
   </si>
   <si>
@@ -518,6 +519,9 @@
     <t>BLP</t>
   </si>
   <si>
+    <t>BIL-6-N1A-21</t>
+  </si>
+  <si>
     <t>FIN-4-N2U-19</t>
   </si>
   <si>
@@ -578,6 +582,9 @@
     <t>CFC</t>
   </si>
   <si>
+    <t>CGF-N1A-16</t>
+  </si>
+  <si>
     <t>3.29%</t>
   </si>
   <si>
@@ -614,6 +621,9 @@
     <t>PGB</t>
   </si>
   <si>
+    <t>NUT-PB2-E1U</t>
+  </si>
+  <si>
     <t>1.01%</t>
   </si>
   <si>
@@ -651,12 +661,6 @@
   </si>
   <si>
     <t>Innovasalud Servicios en Salud S.A.</t>
-  </si>
-  <si>
-    <t>Peticion de Inversión Reportados</t>
-  </si>
-  <si>
-    <t> -   Detalle de Cartera Inversiones en exceso</t>
   </si>
 </sst>
 </file>
@@ -1217,7 +1221,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E125"/>
+  <dimension ref="A1:E129"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -1512,7 +1516,7 @@
         <v>36</v>
       </c>
       <c r="B29" s="64" t="n">
-        <v>3391537.77</v>
+        <v>33597347.82</v>
       </c>
       <c r="C29" s="66" t="s">
         <v>37</v>
@@ -1546,7 +1550,7 @@
         <v>40</v>
       </c>
       <c r="B31" s="64" t="n">
-        <v>33597347.82</v>
+        <v>29247144.12</v>
       </c>
       <c r="C31" s="66" t="s">
         <v>41</v>
@@ -1559,96 +1563,96 @@
       </c>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="62" t="s">
+      <c r="A32" s="72" t="s">
         <v>43</v>
       </c>
-      <c r="B32" s="64" t="n">
-        <v>29247144.12</v>
-      </c>
-      <c r="C32" s="66" t="s">
+      <c r="B32" s="73" t="n">
+        <v>11275058.19</v>
+      </c>
+      <c r="C32" s="71" t="s">
         <v>44</v>
       </c>
-      <c r="D32" s="66" t="s">
+      <c r="D32" s="71" t="s">
         <v>45</v>
       </c>
-      <c r="E32" s="66" t="s">
+      <c r="E32" s="71" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="72" t="s">
+      <c r="A33" s="69" t="s">
         <v>46</v>
       </c>
-      <c r="B33" s="73" t="n">
-        <v>11275058.19</v>
+      <c r="B33" s="71" t="n">
+        <v>1536145.83</v>
       </c>
       <c r="C33" s="71" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="D33" s="71" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="E33" s="71" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="69" t="s">
+        <v>47</v>
+      </c>
+      <c r="B34" s="71" t="n">
+        <v>9738912.36</v>
+      </c>
+      <c r="C34" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="D34" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="E34" s="71" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="72" t="s">
+        <v>48</v>
+      </c>
+      <c r="B35" s="73" t="n">
+        <v>17972085.93</v>
+      </c>
+      <c r="C35" s="71" t="s">
         <v>49</v>
       </c>
-      <c r="B34" s="71" t="n">
-        <v>1536145.83</v>
-      </c>
-      <c r="C34" s="71" t="s">
-        <v>26</v>
-      </c>
-      <c r="D34" s="71" t="s">
-        <v>26</v>
-      </c>
-      <c r="E34" s="71" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="69" t="s">
-        <v>50</v>
-      </c>
-      <c r="B35" s="71" t="n">
-        <v>9738912.36</v>
-      </c>
-      <c r="C35" s="71" t="s">
-        <v>26</v>
-      </c>
       <c r="D35" s="71" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="E35" s="71" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="72" t="s">
-        <v>51</v>
-      </c>
-      <c r="B36" s="73" t="n">
-        <v>17972085.93</v>
+      <c r="A36" s="69" t="s">
+        <v>46</v>
+      </c>
+      <c r="B36" s="71" t="n">
+        <v>1841439.36</v>
       </c>
       <c r="C36" s="71" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="D36" s="71" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="E36" s="71" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="69" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B37" s="71" t="n">
-        <v>1841439.36</v>
+        <v>16130646.57</v>
       </c>
       <c r="C37" s="71" t="s">
         <v>26</v>
@@ -1661,162 +1665,162 @@
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="69" t="s">
+      <c r="A38" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="B38" s="71" t="n">
-        <v>16130646.57</v>
-      </c>
-      <c r="C38" s="71" t="s">
-        <v>26</v>
-      </c>
-      <c r="D38" s="71" t="s">
-        <v>26</v>
-      </c>
-      <c r="E38" s="71" t="s">
-        <v>26</v>
+      <c r="B38" s="64" t="n">
+        <v>4350203.7</v>
+      </c>
+      <c r="C38" s="66" t="s">
+        <v>51</v>
+      </c>
+      <c r="D38" s="66" t="s">
+        <v>52</v>
+      </c>
+      <c r="E38" s="66" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="62" t="s">
+      <c r="A39" s="69" t="s">
         <v>53</v>
       </c>
-      <c r="B39" s="64" t="n">
+      <c r="B39" s="71" t="n">
         <v>4350203.7</v>
       </c>
-      <c r="C39" s="66" t="s">
+      <c r="C39" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="D39" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="E39" s="71" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="62" t="s">
         <v>54</v>
       </c>
-      <c r="D39" s="66" t="s">
+      <c r="B40" s="64" t="n">
+        <v>5481284.96</v>
+      </c>
+      <c r="C40" s="66" t="s">
         <v>55</v>
       </c>
-      <c r="E39" s="66" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="69" t="s">
+      <c r="D40" s="66" t="s">
         <v>56</v>
       </c>
-      <c r="B40" s="71" t="n">
-        <v>4350203.7</v>
-      </c>
-      <c r="C40" s="71" t="s">
-        <v>26</v>
-      </c>
-      <c r="D40" s="71" t="s">
-        <v>26</v>
-      </c>
-      <c r="E40" s="71" t="s">
-        <v>26</v>
+      <c r="E40" s="66" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="62" t="s">
+      <c r="A41" s="69" t="s">
         <v>57</v>
       </c>
-      <c r="B41" s="64" t="n">
-        <v>5481284.96</v>
-      </c>
-      <c r="C41" s="66" t="s">
-        <v>58</v>
-      </c>
-      <c r="D41" s="66" t="s">
-        <v>59</v>
-      </c>
-      <c r="E41" s="66" t="s">
-        <v>22</v>
+      <c r="B41" s="71" t="n">
+        <v>3499730.96</v>
+      </c>
+      <c r="C41" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="D41" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="E41" s="71" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="69" t="s">
+        <v>58</v>
+      </c>
+      <c r="B42" s="71" t="n">
+        <v>1981554</v>
+      </c>
+      <c r="C42" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="D42" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="E42" s="71" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="62" t="s">
+        <v>59</v>
+      </c>
+      <c r="B43" s="76" t="n">
+        <v>39078632.78</v>
+      </c>
+      <c r="C43" s="76" t="s">
         <v>60</v>
       </c>
-      <c r="B42" s="71" t="n">
-        <v>3499730.96</v>
-      </c>
-      <c r="C42" s="71" t="s">
-        <v>26</v>
-      </c>
-      <c r="D42" s="71" t="s">
-        <v>26</v>
-      </c>
-      <c r="E42" s="71" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="69" t="s">
+      <c r="D43" s="76" t="s">
+        <v>26</v>
+      </c>
+      <c r="E43" s="76" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="B43" s="71" t="n">
-        <v>1981554</v>
-      </c>
-      <c r="C43" s="71" t="s">
-        <v>26</v>
-      </c>
-      <c r="D43" s="71" t="s">
-        <v>26</v>
-      </c>
-      <c r="E43" s="71" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="62" t="s">
-        <v>62</v>
-      </c>
-      <c r="B44" s="76" t="n">
-        <v>42470170.55</v>
-      </c>
-      <c r="C44" s="76" t="s">
-        <v>25</v>
-      </c>
-      <c r="D44" s="76" t="s">
-        <v>26</v>
-      </c>
-      <c r="E44" s="76" t="s">
-        <v>26</v>
-      </c>
+      <c r="B45" s="37"/>
+      <c r="C45" s="37"/>
+      <c r="D45" s="37"/>
+      <c r="E45" s="37"/>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="B46" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="C46" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="D46" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="E46" s="39" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="56" t="s">
+        <v>62</v>
+      </c>
+      <c r="B47" s="46" t="n">
+        <v>1732906.92</v>
+      </c>
+      <c r="C47" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="B46" s="37"/>
-      <c r="C46" s="37"/>
-      <c r="D46" s="37"/>
-      <c r="E46" s="37"/>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="B47" s="39" t="s">
-        <v>4</v>
-      </c>
-      <c r="C47" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="D47" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="E47" s="39" t="s">
-        <v>19</v>
+      <c r="D47" s="46" t="s">
+        <v>64</v>
+      </c>
+      <c r="E47" s="46" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="56" t="s">
+        <v>65</v>
+      </c>
+      <c r="B48" s="46" t="n">
+        <v>2203068.99</v>
+      </c>
+      <c r="C48" s="46" t="s">
+        <v>66</v>
+      </c>
+      <c r="D48" s="46" t="s">
         <v>64</v>
-      </c>
-      <c r="B48" s="46" t="n">
-        <v>1732906.92</v>
-      </c>
-      <c r="C48" s="46" t="s">
-        <v>65</v>
-      </c>
-      <c r="D48" s="46" t="s">
-        <v>66</v>
       </c>
       <c r="E48" s="46" t="s">
         <v>22</v>
@@ -1827,13 +1831,13 @@
         <v>67</v>
       </c>
       <c r="B49" s="46" t="n">
-        <v>2203068.99</v>
+        <v>4375993.21</v>
       </c>
       <c r="C49" s="46" t="s">
         <v>68</v>
       </c>
       <c r="D49" s="46" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E49" s="46" t="s">
         <v>22</v>
@@ -1844,13 +1848,13 @@
         <v>69</v>
       </c>
       <c r="B50" s="46" t="n">
-        <v>4375993.21</v>
+        <v>102918.73</v>
       </c>
       <c r="C50" s="46" t="s">
         <v>70</v>
       </c>
       <c r="D50" s="46" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E50" s="46" t="s">
         <v>22</v>
@@ -1861,13 +1865,13 @@
         <v>71</v>
       </c>
       <c r="B51" s="46" t="n">
-        <v>102918.73</v>
+        <v>808004.38</v>
       </c>
       <c r="C51" s="46" t="s">
         <v>72</v>
       </c>
       <c r="D51" s="46" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E51" s="46" t="s">
         <v>22</v>
@@ -1878,13 +1882,13 @@
         <v>73</v>
       </c>
       <c r="B52" s="46" t="n">
-        <v>808004.38</v>
+        <v>3854963.95</v>
       </c>
       <c r="C52" s="46" t="s">
         <v>74</v>
       </c>
       <c r="D52" s="46" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E52" s="46" t="s">
         <v>22</v>
@@ -1895,13 +1899,13 @@
         <v>75</v>
       </c>
       <c r="B53" s="46" t="n">
-        <v>3854963.95</v>
+        <v>94903.79</v>
       </c>
       <c r="C53" s="46" t="s">
         <v>76</v>
       </c>
       <c r="D53" s="46" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E53" s="46" t="s">
         <v>22</v>
@@ -1912,13 +1916,13 @@
         <v>77</v>
       </c>
       <c r="B54" s="46" t="n">
-        <v>94903.79</v>
+        <v>574559.05</v>
       </c>
       <c r="C54" s="46" t="s">
         <v>78</v>
       </c>
       <c r="D54" s="46" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E54" s="46" t="s">
         <v>22</v>
@@ -1929,13 +1933,13 @@
         <v>79</v>
       </c>
       <c r="B55" s="46" t="n">
-        <v>574559.05</v>
+        <v>3675452.76</v>
       </c>
       <c r="C55" s="46" t="s">
         <v>80</v>
       </c>
       <c r="D55" s="46" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E55" s="46" t="s">
         <v>22</v>
@@ -1946,13 +1950,13 @@
         <v>81</v>
       </c>
       <c r="B56" s="46" t="n">
-        <v>3675452.76</v>
+        <v>3493693.84</v>
       </c>
       <c r="C56" s="46" t="s">
         <v>82</v>
       </c>
       <c r="D56" s="46" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E56" s="46" t="s">
         <v>22</v>
@@ -1963,13 +1967,13 @@
         <v>83</v>
       </c>
       <c r="B57" s="46" t="n">
-        <v>3493693.84</v>
+        <v>959965.23</v>
       </c>
       <c r="C57" s="46" t="s">
         <v>84</v>
       </c>
       <c r="D57" s="46" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E57" s="46" t="s">
         <v>22</v>
@@ -1980,13 +1984,13 @@
         <v>85</v>
       </c>
       <c r="B58" s="46" t="n">
-        <v>959965.23</v>
+        <v>2179330.41</v>
       </c>
       <c r="C58" s="46" t="s">
         <v>86</v>
       </c>
       <c r="D58" s="46" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E58" s="46" t="s">
         <v>22</v>
@@ -1997,13 +2001,13 @@
         <v>87</v>
       </c>
       <c r="B59" s="46" t="n">
-        <v>2179330.41</v>
+        <v>589694.22</v>
       </c>
       <c r="C59" s="46" t="s">
         <v>88</v>
       </c>
       <c r="D59" s="46" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E59" s="46" t="s">
         <v>22</v>
@@ -2014,13 +2018,13 @@
         <v>89</v>
       </c>
       <c r="B60" s="46" t="n">
-        <v>589694.22</v>
+        <v>481987.83</v>
       </c>
       <c r="C60" s="46" t="s">
         <v>90</v>
       </c>
       <c r="D60" s="46" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E60" s="46" t="s">
         <v>22</v>
@@ -2031,13 +2035,13 @@
         <v>91</v>
       </c>
       <c r="B61" s="46" t="n">
-        <v>481987.83</v>
+        <v>2534501.56</v>
       </c>
       <c r="C61" s="46" t="s">
         <v>92</v>
       </c>
       <c r="D61" s="46" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E61" s="46" t="s">
         <v>22</v>
@@ -2048,13 +2052,13 @@
         <v>93</v>
       </c>
       <c r="B62" s="46" t="n">
-        <v>2534501.56</v>
+        <v>359420.87</v>
       </c>
       <c r="C62" s="46" t="s">
         <v>94</v>
       </c>
       <c r="D62" s="46" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E62" s="46" t="s">
         <v>22</v>
@@ -2065,13 +2069,13 @@
         <v>95</v>
       </c>
       <c r="B63" s="46" t="n">
-        <v>359420.87</v>
+        <v>2010443.87</v>
       </c>
       <c r="C63" s="46" t="s">
         <v>96</v>
       </c>
       <c r="D63" s="46" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E63" s="46" t="s">
         <v>22</v>
@@ -2082,13 +2086,13 @@
         <v>97</v>
       </c>
       <c r="B64" s="46" t="n">
-        <v>2010443.87</v>
+        <v>434588.92</v>
       </c>
       <c r="C64" s="46" t="s">
         <v>98</v>
       </c>
       <c r="D64" s="46" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E64" s="46" t="s">
         <v>22</v>
@@ -2099,13 +2103,13 @@
         <v>99</v>
       </c>
       <c r="B65" s="46" t="n">
-        <v>434588.92</v>
+        <v>2859566.66</v>
       </c>
       <c r="C65" s="46" t="s">
         <v>100</v>
       </c>
       <c r="D65" s="46" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E65" s="46" t="s">
         <v>22</v>
@@ -2116,13 +2120,13 @@
         <v>101</v>
       </c>
       <c r="B66" s="46" t="n">
-        <v>2859566.66</v>
+        <v>480334.84</v>
       </c>
       <c r="C66" s="46" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D66" s="46" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E66" s="46" t="s">
         <v>22</v>
@@ -2130,16 +2134,16 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="56" t="s">
+        <v>102</v>
+      </c>
+      <c r="B67" s="46" t="n">
+        <v>74538.63</v>
+      </c>
+      <c r="C67" s="46" t="s">
         <v>103</v>
       </c>
-      <c r="B67" s="46" t="n">
-        <v>480334.84</v>
-      </c>
-      <c r="C67" s="46" t="s">
-        <v>92</v>
-      </c>
       <c r="D67" s="46" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E67" s="46" t="s">
         <v>22</v>
@@ -2150,13 +2154,13 @@
         <v>104</v>
       </c>
       <c r="B68" s="46" t="n">
-        <v>74538.63</v>
+        <v>406944.8</v>
       </c>
       <c r="C68" s="46" t="s">
         <v>105</v>
       </c>
       <c r="D68" s="46" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E68" s="46" t="s">
         <v>22</v>
@@ -2167,13 +2171,13 @@
         <v>106</v>
       </c>
       <c r="B69" s="46" t="n">
-        <v>406944.8</v>
+        <v>4061202.04</v>
       </c>
       <c r="C69" s="46" t="s">
         <v>107</v>
       </c>
       <c r="D69" s="46" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E69" s="46" t="s">
         <v>22</v>
@@ -2184,13 +2188,13 @@
         <v>108</v>
       </c>
       <c r="B70" s="46" t="n">
-        <v>4061202.04</v>
+        <v>74164.59</v>
       </c>
       <c r="C70" s="46" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D70" s="46" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E70" s="46" t="s">
         <v>22</v>
@@ -2198,16 +2202,16 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="56" t="s">
+        <v>109</v>
+      </c>
+      <c r="B71" s="46" t="n">
+        <v>202964</v>
+      </c>
+      <c r="C71" s="46" t="s">
         <v>110</v>
       </c>
-      <c r="B71" s="46" t="n">
-        <v>74164.59</v>
-      </c>
-      <c r="C71" s="46" t="s">
-        <v>105</v>
-      </c>
       <c r="D71" s="46" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E71" s="46" t="s">
         <v>22</v>
@@ -2218,13 +2222,13 @@
         <v>111</v>
       </c>
       <c r="B72" s="46" t="n">
-        <v>202964</v>
+        <v>89989.11</v>
       </c>
       <c r="C72" s="46" t="s">
         <v>112</v>
       </c>
       <c r="D72" s="46" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E72" s="46" t="s">
         <v>22</v>
@@ -2235,13 +2239,13 @@
         <v>113</v>
       </c>
       <c r="B73" s="46" t="n">
-        <v>89989.11</v>
+        <v>1147492.48</v>
       </c>
       <c r="C73" s="46" t="s">
         <v>114</v>
       </c>
       <c r="D73" s="46" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E73" s="46" t="s">
         <v>22</v>
@@ -2252,13 +2256,13 @@
         <v>115</v>
       </c>
       <c r="B74" s="46" t="n">
-        <v>1147492.48</v>
+        <v>729695.25</v>
       </c>
       <c r="C74" s="46" t="s">
         <v>116</v>
       </c>
       <c r="D74" s="46" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E74" s="46" t="s">
         <v>22</v>
@@ -2269,13 +2273,13 @@
         <v>117</v>
       </c>
       <c r="B75" s="46" t="n">
-        <v>729695.25</v>
+        <v>64687.38</v>
       </c>
       <c r="C75" s="46" t="s">
         <v>118</v>
       </c>
       <c r="D75" s="46" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E75" s="46" t="s">
         <v>22</v>
@@ -2286,13 +2290,13 @@
         <v>119</v>
       </c>
       <c r="B76" s="46" t="n">
-        <v>64687.38</v>
+        <v>1055892.24</v>
       </c>
       <c r="C76" s="46" t="s">
         <v>120</v>
       </c>
       <c r="D76" s="46" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E76" s="46" t="s">
         <v>22</v>
@@ -2303,107 +2307,107 @@
         <v>121</v>
       </c>
       <c r="B77" s="46" t="n">
-        <v>1055892.24</v>
+        <v>756300</v>
       </c>
       <c r="C77" s="46" t="s">
         <v>122</v>
       </c>
       <c r="D77" s="46" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E77" s="46" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="78" spans="1:5">
-      <c r="A78" s="56" t="s">
+      <c r="A78" s="48" t="s">
         <v>123</v>
       </c>
-      <c r="B78" s="46" t="n">
-        <v>756300</v>
-      </c>
-      <c r="C78" s="46" t="s">
+      <c r="B78" s="54" t="n">
+        <v>42470170.55</v>
+      </c>
+      <c r="C78" s="54" t="s">
         <v>124</v>
       </c>
-      <c r="D78" s="46" t="s">
-        <v>66</v>
-      </c>
-      <c r="E78" s="46" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
-      <c r="A79" s="48" t="s">
+      <c r="D78" s="54" t="s">
+        <v>26</v>
+      </c>
+      <c r="E78" s="54" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="37" t="s">
         <v>125</v>
       </c>
-      <c r="B79" s="54" t="n">
-        <v>42470170.55</v>
-      </c>
-      <c r="C79" s="54" t="s">
-        <v>126</v>
-      </c>
-      <c r="D79" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="E79" s="54" t="s">
-        <v>26</v>
-      </c>
+      <c r="B80" s="37"/>
+      <c r="C80" s="37"/>
+      <c r="D80" s="37"/>
+      <c r="E80" s="37"/>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="37" t="s">
+        <v>126</v>
+      </c>
+      <c r="B81" s="39" t="s">
         <v>127</v>
       </c>
-      <c r="B81" s="37"/>
-      <c r="C81" s="37"/>
-      <c r="D81" s="37"/>
-      <c r="E81" s="37"/>
+      <c r="C81" s="39" t="s">
+        <v>128</v>
+      </c>
+      <c r="D81" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="E81" s="39" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="82" spans="1:5">
-      <c r="A82" s="37" t="s">
-        <v>128</v>
-      </c>
-      <c r="B82" s="39" t="s">
+      <c r="A82" s="62" t="s">
         <v>129</v>
       </c>
-      <c r="C82" s="39" t="s">
+      <c r="B82" s="64" t="n">
+        <v>3391537.79</v>
+      </c>
+      <c r="C82" s="66" t="s">
+        <v>32</v>
+      </c>
+      <c r="D82" s="66" t="s">
+        <v>26</v>
+      </c>
+      <c r="E82" s="66" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="69" t="s">
         <v>130</v>
       </c>
-      <c r="D82" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="E82" s="39" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
-      <c r="A83" s="62" t="s">
+      <c r="B83" s="71" t="n">
+        <v>1732906.92</v>
+      </c>
+      <c r="C83" s="71" t="s">
         <v>131</v>
       </c>
-      <c r="B83" s="64" t="n">
-        <v>1732906.92</v>
-      </c>
-      <c r="C83" s="66" t="s">
+      <c r="D83" s="71" t="s">
         <v>132</v>
       </c>
-      <c r="D83" s="66" t="s">
-        <v>133</v>
-      </c>
-      <c r="E83" s="66" t="s">
+      <c r="E83" s="71" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="69" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B84" s="71" t="n">
         <v>566819.58</v>
       </c>
       <c r="C84" s="71" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D84" s="71" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E84" s="71" t="s">
         <v>22</v>
@@ -2411,16 +2415,16 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="69" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B85" s="71" t="n">
         <v>138152.58</v>
       </c>
       <c r="C85" s="71" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D85" s="71" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E85" s="71" t="s">
         <v>22</v>
@@ -2428,16 +2432,16 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="69" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B86" s="71" t="n">
         <v>164052.16</v>
       </c>
       <c r="C86" s="71" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D86" s="71" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E86" s="71" t="s">
         <v>22</v>
@@ -2445,16 +2449,16 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="69" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B87" s="71" t="n">
         <v>197379.29</v>
       </c>
       <c r="C87" s="71" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D87" s="71" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E87" s="71" t="s">
         <v>22</v>
@@ -2462,16 +2466,16 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="69" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B88" s="71" t="n">
         <v>497323.47</v>
       </c>
       <c r="C88" s="71" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D88" s="71" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E88" s="71" t="s">
         <v>22</v>
@@ -2479,16 +2483,16 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="69" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B89" s="71" t="n">
         <v>94903.79</v>
       </c>
       <c r="C89" s="71" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D89" s="71" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E89" s="71" t="s">
         <v>22</v>
@@ -2496,30 +2500,30 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="62" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B90" s="64" t="n">
-        <v>5278.63</v>
+        <v>3377585.19</v>
       </c>
       <c r="C90" s="66" t="s">
-        <v>147</v>
+        <v>32</v>
       </c>
       <c r="D90" s="66" t="s">
-        <v>148</v>
+        <v>26</v>
       </c>
       <c r="E90" s="66" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="69" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B91" s="71" t="n">
-        <v>8639.94</v>
+        <v>5278.63</v>
       </c>
       <c r="C91" s="71" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D91" s="71" t="s">
         <v>148</v>
@@ -2530,13 +2534,13 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="69" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B92" s="71" t="n">
-        <v>292993.88</v>
+        <v>8639.94</v>
       </c>
       <c r="C92" s="71" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D92" s="71" t="s">
         <v>148</v>
@@ -2547,13 +2551,13 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="69" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B93" s="71" t="n">
-        <v>615300</v>
+        <v>292993.88</v>
       </c>
       <c r="C93" s="71" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D93" s="71" t="s">
         <v>148</v>
@@ -2564,13 +2568,13 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="69" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B94" s="71" t="n">
-        <v>1034666.33</v>
+        <v>615300</v>
       </c>
       <c r="C94" s="71" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D94" s="71" t="s">
         <v>148</v>
@@ -2581,13 +2585,13 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="69" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B95" s="71" t="n">
-        <v>426877.46</v>
+        <v>1034666.33</v>
       </c>
       <c r="C95" s="71" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D95" s="71" t="s">
         <v>148</v>
@@ -2598,13 +2602,13 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="69" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B96" s="71" t="n">
-        <v>204602.5</v>
+        <v>426877.46</v>
       </c>
       <c r="C96" s="71" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D96" s="71" t="s">
         <v>148</v>
@@ -2615,13 +2619,13 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="69" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B97" s="71" t="n">
-        <v>160314.72</v>
+        <v>204602.5</v>
       </c>
       <c r="C97" s="71" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D97" s="71" t="s">
         <v>148</v>
@@ -2632,13 +2636,13 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="69" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B98" s="71" t="n">
-        <v>554309.69</v>
+        <v>160314.72</v>
       </c>
       <c r="C98" s="71" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D98" s="71" t="s">
         <v>148</v>
@@ -2649,13 +2653,13 @@
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="69" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B99" s="71" t="n">
-        <v>74602.04</v>
+        <v>554309.69</v>
       </c>
       <c r="C99" s="71" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D99" s="71" t="s">
         <v>148</v>
@@ -2665,48 +2669,48 @@
       </c>
     </row>
     <row r="100" spans="1:5">
-      <c r="A100" s="62" t="s">
+      <c r="A100" s="69" t="s">
+        <v>165</v>
+      </c>
+      <c r="B100" s="71" t="n">
+        <v>74602.04</v>
+      </c>
+      <c r="C100" s="71" t="s">
+        <v>166</v>
+      </c>
+      <c r="D100" s="71" t="s">
+        <v>148</v>
+      </c>
+      <c r="E100" s="71" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" s="62" t="s">
         <v>167</v>
       </c>
-      <c r="B100" s="64" t="n">
-        <v>102918.73</v>
-      </c>
-      <c r="C100" s="66" t="s">
-        <v>152</v>
-      </c>
-      <c r="D100" s="66" t="s">
-        <v>148</v>
-      </c>
-      <c r="E100" s="66" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5">
-      <c r="A101" s="69" t="s">
-        <v>168</v>
-      </c>
-      <c r="B101" s="71" t="n">
-        <v>434588.92</v>
-      </c>
-      <c r="C101" s="71" t="s">
-        <v>158</v>
-      </c>
-      <c r="D101" s="71" t="s">
-        <v>148</v>
-      </c>
-      <c r="E101" s="71" t="s">
-        <v>22</v>
+      <c r="B101" s="64" t="n">
+        <v>3499730.96</v>
+      </c>
+      <c r="C101" s="66" t="s">
+        <v>32</v>
+      </c>
+      <c r="D101" s="66" t="s">
+        <v>26</v>
+      </c>
+      <c r="E101" s="66" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="69" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B102" s="71" t="n">
-        <v>480334.84</v>
+        <v>102918.73</v>
       </c>
       <c r="C102" s="71" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="D102" s="71" t="s">
         <v>148</v>
@@ -2717,13 +2721,13 @@
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="69" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B103" s="71" t="n">
-        <v>406944.8</v>
+        <v>434588.92</v>
       </c>
       <c r="C103" s="71" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="D103" s="71" t="s">
         <v>148</v>
@@ -2734,13 +2738,13 @@
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="69" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B104" s="71" t="n">
-        <v>74164.59</v>
+        <v>480334.84</v>
       </c>
       <c r="C104" s="71" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D104" s="71" t="s">
         <v>148</v>
@@ -2751,13 +2755,13 @@
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="69" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B105" s="71" t="n">
-        <v>89989.11</v>
+        <v>406944.8</v>
       </c>
       <c r="C105" s="71" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D105" s="71" t="s">
         <v>148</v>
@@ -2768,13 +2772,13 @@
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="69" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B106" s="71" t="n">
-        <v>125202.48</v>
+        <v>74164.59</v>
       </c>
       <c r="C106" s="71" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D106" s="71" t="s">
         <v>148</v>
@@ -2785,13 +2789,13 @@
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="69" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B107" s="71" t="n">
-        <v>83972.01</v>
+        <v>89989.11</v>
       </c>
       <c r="C107" s="71" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D107" s="71" t="s">
         <v>148</v>
@@ -2802,13 +2806,13 @@
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="69" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B108" s="71" t="n">
-        <v>440084.26</v>
+        <v>125202.48</v>
       </c>
       <c r="C108" s="71" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D108" s="71" t="s">
         <v>148</v>
@@ -2819,13 +2823,13 @@
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="69" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B109" s="71" t="n">
-        <v>205638.98</v>
+        <v>83972.01</v>
       </c>
       <c r="C109" s="71" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D109" s="71" t="s">
         <v>148</v>
@@ -2836,13 +2840,13 @@
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="69" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B110" s="71" t="n">
-        <v>1055892.24</v>
+        <v>440084.26</v>
       </c>
       <c r="C110" s="71" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D110" s="71" t="s">
         <v>148</v>
@@ -2852,68 +2856,68 @@
       </c>
     </row>
     <row r="111" spans="1:5">
-      <c r="A111" s="62" t="s">
-        <v>187</v>
-      </c>
-      <c r="B111" s="64" t="n">
-        <v>959965.23</v>
-      </c>
-      <c r="C111" s="66" t="s">
-        <v>188</v>
-      </c>
-      <c r="D111" s="66" t="s">
-        <v>133</v>
-      </c>
-      <c r="E111" s="66" t="s">
+      <c r="A111" s="69" t="s">
+        <v>184</v>
+      </c>
+      <c r="B111" s="71" t="n">
+        <v>205638.98</v>
+      </c>
+      <c r="C111" s="71" t="s">
+        <v>185</v>
+      </c>
+      <c r="D111" s="71" t="s">
+        <v>148</v>
+      </c>
+      <c r="E111" s="71" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="69" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B112" s="71" t="n">
-        <v>2179330.41</v>
+        <v>1055892.24</v>
       </c>
       <c r="C112" s="71" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D112" s="71" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="E112" s="71" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="113" spans="1:5">
-      <c r="A113" s="69" t="s">
-        <v>191</v>
-      </c>
-      <c r="B113" s="71" t="n">
-        <v>589694.22</v>
-      </c>
-      <c r="C113" s="71" t="s">
-        <v>192</v>
-      </c>
-      <c r="D113" s="71" t="s">
-        <v>133</v>
-      </c>
-      <c r="E113" s="71" t="s">
-        <v>22</v>
+      <c r="A113" s="62" t="s">
+        <v>188</v>
+      </c>
+      <c r="B113" s="64" t="n">
+        <v>4350203.7</v>
+      </c>
+      <c r="C113" s="66" t="s">
+        <v>32</v>
+      </c>
+      <c r="D113" s="66" t="s">
+        <v>26</v>
+      </c>
+      <c r="E113" s="66" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="69" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B114" s="71" t="n">
-        <v>481987.83</v>
+        <v>959965.23</v>
       </c>
       <c r="C114" s="71" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D114" s="71" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E114" s="71" t="s">
         <v>22</v>
@@ -2921,16 +2925,16 @@
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="69" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B115" s="71" t="n">
-        <v>74538.63</v>
+        <v>2179330.41</v>
       </c>
       <c r="C115" s="71" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D115" s="71" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E115" s="71" t="s">
         <v>22</v>
@@ -2938,96 +2942,121 @@
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="69" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B116" s="71" t="n">
-        <v>64687.38</v>
+        <v>589694.22</v>
       </c>
       <c r="C116" s="71" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D116" s="71" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E116" s="71" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="117" spans="1:5">
-      <c r="A117" s="62" t="s">
-        <v>199</v>
-      </c>
-      <c r="B117" s="64" t="n">
-        <v>202964</v>
-      </c>
-      <c r="C117" s="66" t="s">
-        <v>200</v>
-      </c>
-      <c r="D117" s="66" t="s">
-        <v>148</v>
-      </c>
-      <c r="E117" s="66" t="s">
+      <c r="A117" s="69" t="s">
+        <v>195</v>
+      </c>
+      <c r="B117" s="71" t="n">
+        <v>481987.83</v>
+      </c>
+      <c r="C117" s="71" t="s">
+        <v>196</v>
+      </c>
+      <c r="D117" s="71" t="s">
+        <v>132</v>
+      </c>
+      <c r="E117" s="71" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="69" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B118" s="71" t="n">
-        <v>1022290</v>
+        <v>74538.63</v>
       </c>
       <c r="C118" s="71" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D118" s="71" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="E118" s="71" t="s">
-        <v>203</v>
+        <v>22</v>
       </c>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="69" t="s">
+        <v>199</v>
+      </c>
+      <c r="B119" s="71" t="n">
+        <v>64687.38</v>
+      </c>
+      <c r="C119" s="71" t="s">
+        <v>200</v>
+      </c>
+      <c r="D119" s="71" t="s">
+        <v>132</v>
+      </c>
+      <c r="E119" s="71" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120" s="62" t="s">
+        <v>201</v>
+      </c>
+      <c r="B120" s="64" t="n">
+        <v>1981554</v>
+      </c>
+      <c r="C120" s="66" t="s">
+        <v>32</v>
+      </c>
+      <c r="D120" s="66" t="s">
+        <v>26</v>
+      </c>
+      <c r="E120" s="66" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121" s="69" t="s">
+        <v>202</v>
+      </c>
+      <c r="B121" s="71" t="n">
+        <v>202964</v>
+      </c>
+      <c r="C121" s="71" t="s">
+        <v>203</v>
+      </c>
+      <c r="D121" s="71" t="s">
+        <v>148</v>
+      </c>
+      <c r="E121" s="71" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122" s="69" t="s">
         <v>204</v>
       </c>
-      <c r="B119" s="71" t="n">
-        <v>756300</v>
-      </c>
-      <c r="C119" s="71" t="s">
+      <c r="B122" s="71" t="n">
+        <v>1022290</v>
+      </c>
+      <c r="C122" s="71" t="s">
         <v>205</v>
       </c>
-      <c r="D119" s="71" t="s">
+      <c r="D122" s="71" t="s">
         <v>148</v>
       </c>
-      <c r="E119" s="71" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5">
-      <c r="A121" s="37" t="s">
+      <c r="E122" s="71" t="s">
         <v>206</v>
-      </c>
-      <c r="B121" s="37"/>
-      <c r="C121" s="37"/>
-      <c r="D121" s="37"/>
-      <c r="E121" s="37"/>
-    </row>
-    <row r="122" spans="1:5">
-      <c r="A122" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="B122" s="39" t="s">
-        <v>4</v>
-      </c>
-      <c r="C122" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="D122" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="E122" s="39" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -3035,49 +3064,92 @@
         <v>207</v>
       </c>
       <c r="B123" s="71" t="n">
+        <v>756300</v>
+      </c>
+      <c r="C123" s="71" t="s">
+        <v>208</v>
+      </c>
+      <c r="D123" s="71" t="s">
+        <v>148</v>
+      </c>
+      <c r="E123" s="71" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125" s="37" t="s">
+        <v>209</v>
+      </c>
+      <c r="B125" s="37"/>
+      <c r="C125" s="37"/>
+      <c r="D125" s="37"/>
+      <c r="E125" s="37"/>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="B126" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="C126" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="D126" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="E126" s="39" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127" s="69" t="s">
+        <v>210</v>
+      </c>
+      <c r="B127" s="71" t="n">
         <v>0</v>
       </c>
-      <c r="C123" s="71" t="s">
+      <c r="C127" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="D123" s="71" t="s">
+      <c r="D127" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="E123" s="71" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5">
-      <c r="A124" s="69" t="s">
-        <v>208</v>
-      </c>
-      <c r="B124" s="71" t="n">
+      <c r="E127" s="71" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128" s="69" t="s">
+        <v>211</v>
+      </c>
+      <c r="B128" s="71" t="n">
         <v>105589224.49</v>
       </c>
-      <c r="C124" s="71" t="s">
-        <v>122</v>
-      </c>
-      <c r="D124" s="71" t="s">
-        <v>209</v>
-      </c>
-      <c r="E124" s="71" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5">
-      <c r="A125" s="79" t="s">
-        <v>210</v>
-      </c>
-      <c r="B125" s="82" t="n">
+      <c r="C128" s="71" t="s">
+        <v>120</v>
+      </c>
+      <c r="D128" s="71" t="s">
+        <v>212</v>
+      </c>
+      <c r="E128" s="71" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129" s="79" t="s">
+        <v>213</v>
+      </c>
+      <c r="B129" s="82" t="n">
         <v>105589224.49</v>
       </c>
-      <c r="C125" s="82" t="s">
-        <v>122</v>
-      </c>
-      <c r="D125" s="82" t="s">
-        <v>211</v>
-      </c>
-      <c r="E125" s="82" t="s">
+      <c r="C129" s="82" t="s">
+        <v>120</v>
+      </c>
+      <c r="D129" s="82" t="s">
+        <v>214</v>
+      </c>
+      <c r="E129" s="82" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3086,9 +3158,9 @@
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="A27:E27"/>
-    <mergeCell ref="A46:E46"/>
-    <mergeCell ref="A81:E81"/>
-    <mergeCell ref="A121:E121"/>
+    <mergeCell ref="A45:E45"/>
+    <mergeCell ref="A80:E80"/>
+    <mergeCell ref="A125:E125"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3096,7 +3168,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -3112,7 +3196,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="14" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -3151,22 +3235,6 @@
         <v>1146277.11</v>
       </c>
       <c r="C6" s="34"/>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="B8" s="39" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="42" t="s">
-        <v>214</v>
-      </c>
-      <c r="B9" s="46" t="n">
-        <v>3983900.78</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/reports/Reporte-APS-Mallas.xlsx
+++ b/reports/Reporte-APS-Mallas.xlsx
@@ -156,7 +156,7 @@
     <t>Bonos Bancarios Bursátiles</t>
   </si>
   <si>
-    <t>DPFs</t>
+    <t>Depósitos a Plazo Fijo Entidades Bancarias</t>
   </si>
   <si>
     <t>Largo Plazo</t>

--- a/reports/Reporte-APS-Mallas.xlsx
+++ b/reports/Reporte-APS-Mallas.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="215">
   <si>
     <t>Alianza Compañía de Seguros y Reaseguros S.A.</t>
   </si>
@@ -90,7 +90,7 @@
     <t>5%</t>
   </si>
   <si>
-    <t>93.32%</t>
+    <t>93.97%</t>
   </si>
   <si>
     <t/>
@@ -99,13 +99,13 @@
     <t> -   Recursos de Inversión Admisibles</t>
   </si>
   <si>
-    <t>128.32%</t>
+    <t>128.97%</t>
   </si>
   <si>
     <t> -   Exceso Absoluto</t>
   </si>
   <si>
-    <t>28.32%</t>
+    <t>28.97%</t>
   </si>
   <si>
     <t> -   Menos: Previsión contable</t>
@@ -204,7 +204,7 @@
     <t>ALI</t>
   </si>
   <si>
-    <t>3.81%</t>
+    <t>4.45%</t>
   </si>
   <si>
     <t>10   %</t>
@@ -387,9 +387,6 @@
     <t>TOTAL CARTERA POR EMISOR</t>
   </si>
   <si>
-    <t>93.33%</t>
-  </si>
-  <si>
     <t>CARTERA DE INVERSIONES POR EMISIÓN</t>
   </si>
   <si>
@@ -408,7 +405,7 @@
     <t>ALI1U</t>
   </si>
   <si>
-    <t>15.81%</t>
+    <t>18.49%</t>
   </si>
   <si>
     <t>20%</t>
@@ -1322,7 +1319,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="50" t="n">
-        <v>46454071.43</v>
+        <v>46748316.7</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1330,7 +1327,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="46" t="n">
-        <v>42470170.66</v>
+        <v>42764415.93</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1346,7 +1343,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="54" t="n">
-        <v>74710111.29</v>
+        <v>75004356.56</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1405,7 +1402,7 @@
         <v>12</v>
       </c>
       <c r="B21" s="46" t="n">
-        <v>42470170.66</v>
+        <v>42764415.93</v>
       </c>
       <c r="C21" s="46" t="s">
         <v>25</v>
@@ -1422,7 +1419,7 @@
         <v>27</v>
       </c>
       <c r="B22" s="50" t="n">
-        <v>58398681.07</v>
+        <v>58692926.34</v>
       </c>
       <c r="C22" s="46" t="s">
         <v>28</v>
@@ -1439,7 +1436,7 @@
         <v>29</v>
       </c>
       <c r="B23" s="46" t="n">
-        <v>12888651.34</v>
+        <v>13182896.61</v>
       </c>
       <c r="C23" s="46" t="s">
         <v>30</v>
@@ -1473,7 +1470,7 @@
         <v>33</v>
       </c>
       <c r="B25" s="54" t="n">
-        <v>12888651.34</v>
+        <v>13182896.61</v>
       </c>
       <c r="C25" s="54" t="s">
         <v>30</v>
@@ -1533,7 +1530,7 @@
         <v>39</v>
       </c>
       <c r="B30" s="71" t="n">
-        <v>3391537.77</v>
+        <v>3685783.04</v>
       </c>
       <c r="C30" s="71" t="s">
         <v>26</v>
@@ -1797,7 +1794,7 @@
         <v>62</v>
       </c>
       <c r="B47" s="46" t="n">
-        <v>1732906.92</v>
+        <v>2027152.19</v>
       </c>
       <c r="C47" s="46" t="s">
         <v>63</v>
@@ -2324,10 +2321,10 @@
         <v>123</v>
       </c>
       <c r="B78" s="54" t="n">
-        <v>42470170.55</v>
+        <v>42764415.82</v>
       </c>
       <c r="C78" s="54" t="s">
-        <v>124</v>
+        <v>25</v>
       </c>
       <c r="D78" s="54" t="s">
         <v>26</v>
@@ -2338,7 +2335,7 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="37" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B80" s="37"/>
       <c r="C80" s="37"/>
@@ -2347,13 +2344,13 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="B81" s="39" t="s">
         <v>126</v>
       </c>
-      <c r="B81" s="39" t="s">
+      <c r="C81" s="39" t="s">
         <v>127</v>
-      </c>
-      <c r="C81" s="39" t="s">
-        <v>128</v>
       </c>
       <c r="D81" s="39" t="s">
         <v>18</v>
@@ -2364,10 +2361,10 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="62" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B82" s="64" t="n">
-        <v>3391537.79</v>
+        <v>3685783.06</v>
       </c>
       <c r="C82" s="66" t="s">
         <v>32</v>
@@ -2381,16 +2378,16 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="69" t="s">
+        <v>129</v>
+      </c>
+      <c r="B83" s="71" t="n">
+        <v>2027152.19</v>
+      </c>
+      <c r="C83" s="71" t="s">
         <v>130</v>
       </c>
-      <c r="B83" s="71" t="n">
-        <v>1732906.92</v>
-      </c>
-      <c r="C83" s="71" t="s">
+      <c r="D83" s="71" t="s">
         <v>131</v>
-      </c>
-      <c r="D83" s="71" t="s">
-        <v>132</v>
       </c>
       <c r="E83" s="71" t="s">
         <v>22</v>
@@ -2398,16 +2395,16 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="69" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B84" s="71" t="n">
         <v>566819.58</v>
       </c>
       <c r="C84" s="71" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D84" s="71" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E84" s="71" t="s">
         <v>22</v>
@@ -2415,16 +2412,16 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="69" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B85" s="71" t="n">
         <v>138152.58</v>
       </c>
       <c r="C85" s="71" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D85" s="71" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E85" s="71" t="s">
         <v>22</v>
@@ -2432,16 +2429,16 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="69" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B86" s="71" t="n">
         <v>164052.16</v>
       </c>
       <c r="C86" s="71" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D86" s="71" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E86" s="71" t="s">
         <v>22</v>
@@ -2449,16 +2446,16 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="69" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B87" s="71" t="n">
         <v>197379.29</v>
       </c>
       <c r="C87" s="71" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D87" s="71" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E87" s="71" t="s">
         <v>22</v>
@@ -2466,16 +2463,16 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="69" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B88" s="71" t="n">
         <v>497323.47</v>
       </c>
       <c r="C88" s="71" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D88" s="71" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E88" s="71" t="s">
         <v>22</v>
@@ -2483,16 +2480,16 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="69" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B89" s="71" t="n">
         <v>94903.79</v>
       </c>
       <c r="C89" s="71" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D89" s="71" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E89" s="71" t="s">
         <v>22</v>
@@ -2500,7 +2497,7 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="62" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B90" s="64" t="n">
         <v>3377585.19</v>
@@ -2517,16 +2514,16 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="69" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B91" s="71" t="n">
         <v>5278.63</v>
       </c>
       <c r="C91" s="71" t="s">
+        <v>146</v>
+      </c>
+      <c r="D91" s="71" t="s">
         <v>147</v>
-      </c>
-      <c r="D91" s="71" t="s">
-        <v>148</v>
       </c>
       <c r="E91" s="71" t="s">
         <v>22</v>
@@ -2534,16 +2531,16 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="69" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B92" s="71" t="n">
         <v>8639.94</v>
       </c>
       <c r="C92" s="71" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D92" s="71" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E92" s="71" t="s">
         <v>22</v>
@@ -2551,16 +2548,16 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="69" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B93" s="71" t="n">
         <v>292993.88</v>
       </c>
       <c r="C93" s="71" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D93" s="71" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E93" s="71" t="s">
         <v>22</v>
@@ -2568,16 +2565,16 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="69" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B94" s="71" t="n">
         <v>615300</v>
       </c>
       <c r="C94" s="71" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D94" s="71" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E94" s="71" t="s">
         <v>22</v>
@@ -2585,16 +2582,16 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="69" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B95" s="71" t="n">
         <v>1034666.33</v>
       </c>
       <c r="C95" s="71" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D95" s="71" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E95" s="71" t="s">
         <v>22</v>
@@ -2602,16 +2599,16 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="69" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B96" s="71" t="n">
         <v>426877.46</v>
       </c>
       <c r="C96" s="71" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D96" s="71" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E96" s="71" t="s">
         <v>22</v>
@@ -2619,16 +2616,16 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="69" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B97" s="71" t="n">
         <v>204602.5</v>
       </c>
       <c r="C97" s="71" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D97" s="71" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E97" s="71" t="s">
         <v>22</v>
@@ -2636,16 +2633,16 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="69" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B98" s="71" t="n">
         <v>160314.72</v>
       </c>
       <c r="C98" s="71" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D98" s="71" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E98" s="71" t="s">
         <v>22</v>
@@ -2653,16 +2650,16 @@
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="69" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B99" s="71" t="n">
         <v>554309.69</v>
       </c>
       <c r="C99" s="71" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D99" s="71" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E99" s="71" t="s">
         <v>22</v>
@@ -2670,16 +2667,16 @@
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="69" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B100" s="71" t="n">
         <v>74602.04</v>
       </c>
       <c r="C100" s="71" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D100" s="71" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E100" s="71" t="s">
         <v>22</v>
@@ -2687,7 +2684,7 @@
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="62" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B101" s="64" t="n">
         <v>3499730.96</v>
@@ -2704,16 +2701,16 @@
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="69" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B102" s="71" t="n">
         <v>102918.73</v>
       </c>
       <c r="C102" s="71" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D102" s="71" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E102" s="71" t="s">
         <v>22</v>
@@ -2721,16 +2718,16 @@
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="69" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B103" s="71" t="n">
         <v>434588.92</v>
       </c>
       <c r="C103" s="71" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D103" s="71" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E103" s="71" t="s">
         <v>22</v>
@@ -2738,16 +2735,16 @@
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="69" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B104" s="71" t="n">
         <v>480334.84</v>
       </c>
       <c r="C104" s="71" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D104" s="71" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E104" s="71" t="s">
         <v>22</v>
@@ -2755,16 +2752,16 @@
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="69" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B105" s="71" t="n">
         <v>406944.8</v>
       </c>
       <c r="C105" s="71" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D105" s="71" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E105" s="71" t="s">
         <v>22</v>
@@ -2772,16 +2769,16 @@
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="69" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B106" s="71" t="n">
         <v>74164.59</v>
       </c>
       <c r="C106" s="71" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D106" s="71" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E106" s="71" t="s">
         <v>22</v>
@@ -2789,16 +2786,16 @@
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="69" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B107" s="71" t="n">
         <v>89989.11</v>
       </c>
       <c r="C107" s="71" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D107" s="71" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E107" s="71" t="s">
         <v>22</v>
@@ -2806,16 +2803,16 @@
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="69" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B108" s="71" t="n">
         <v>125202.48</v>
       </c>
       <c r="C108" s="71" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D108" s="71" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E108" s="71" t="s">
         <v>22</v>
@@ -2823,16 +2820,16 @@
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="69" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B109" s="71" t="n">
         <v>83972.01</v>
       </c>
       <c r="C109" s="71" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D109" s="71" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E109" s="71" t="s">
         <v>22</v>
@@ -2840,16 +2837,16 @@
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="69" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B110" s="71" t="n">
         <v>440084.26</v>
       </c>
       <c r="C110" s="71" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D110" s="71" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E110" s="71" t="s">
         <v>22</v>
@@ -2857,16 +2854,16 @@
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="69" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B111" s="71" t="n">
         <v>205638.98</v>
       </c>
       <c r="C111" s="71" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D111" s="71" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E111" s="71" t="s">
         <v>22</v>
@@ -2874,16 +2871,16 @@
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="69" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B112" s="71" t="n">
         <v>1055892.24</v>
       </c>
       <c r="C112" s="71" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D112" s="71" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E112" s="71" t="s">
         <v>22</v>
@@ -2891,7 +2888,7 @@
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="62" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B113" s="64" t="n">
         <v>4350203.7</v>
@@ -2908,16 +2905,16 @@
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="69" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B114" s="71" t="n">
         <v>959965.23</v>
       </c>
       <c r="C114" s="71" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D114" s="71" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E114" s="71" t="s">
         <v>22</v>
@@ -2925,16 +2922,16 @@
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="69" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B115" s="71" t="n">
         <v>2179330.41</v>
       </c>
       <c r="C115" s="71" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D115" s="71" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E115" s="71" t="s">
         <v>22</v>
@@ -2942,16 +2939,16 @@
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="69" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B116" s="71" t="n">
         <v>589694.22</v>
       </c>
       <c r="C116" s="71" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D116" s="71" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E116" s="71" t="s">
         <v>22</v>
@@ -2959,16 +2956,16 @@
     </row>
     <row r="117" spans="1:5">
       <c r="A117" s="69" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B117" s="71" t="n">
         <v>481987.83</v>
       </c>
       <c r="C117" s="71" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D117" s="71" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E117" s="71" t="s">
         <v>22</v>
@@ -2976,16 +2973,16 @@
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="69" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B118" s="71" t="n">
         <v>74538.63</v>
       </c>
       <c r="C118" s="71" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D118" s="71" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E118" s="71" t="s">
         <v>22</v>
@@ -2993,16 +2990,16 @@
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="69" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B119" s="71" t="n">
         <v>64687.38</v>
       </c>
       <c r="C119" s="71" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D119" s="71" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E119" s="71" t="s">
         <v>22</v>
@@ -3010,7 +3007,7 @@
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="62" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B120" s="64" t="n">
         <v>1981554</v>
@@ -3027,16 +3024,16 @@
     </row>
     <row r="121" spans="1:5">
       <c r="A121" s="69" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B121" s="71" t="n">
         <v>202964</v>
       </c>
       <c r="C121" s="71" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D121" s="71" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E121" s="71" t="s">
         <v>22</v>
@@ -3044,33 +3041,33 @@
     </row>
     <row r="122" spans="1:5">
       <c r="A122" s="69" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B122" s="71" t="n">
         <v>1022290</v>
       </c>
       <c r="C122" s="71" t="s">
+        <v>204</v>
+      </c>
+      <c r="D122" s="71" t="s">
+        <v>147</v>
+      </c>
+      <c r="E122" s="71" t="s">
         <v>205</v>
-      </c>
-      <c r="D122" s="71" t="s">
-        <v>148</v>
-      </c>
-      <c r="E122" s="71" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="123" spans="1:5">
       <c r="A123" s="69" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B123" s="71" t="n">
         <v>756300</v>
       </c>
       <c r="C123" s="71" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D123" s="71" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E123" s="71" t="s">
         <v>22</v>
@@ -3078,7 +3075,7 @@
     </row>
     <row r="125" spans="1:5">
       <c r="A125" s="37" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B125" s="37"/>
       <c r="C125" s="37"/>
@@ -3104,7 +3101,7 @@
     </row>
     <row r="127" spans="1:5">
       <c r="A127" s="69" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B127" s="71" t="n">
         <v>0</v>
@@ -3121,7 +3118,7 @@
     </row>
     <row r="128" spans="1:5">
       <c r="A128" s="69" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B128" s="71" t="n">
         <v>105589224.49</v>
@@ -3130,7 +3127,7 @@
         <v>120</v>
       </c>
       <c r="D128" s="71" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E128" s="71" t="s">
         <v>22</v>
@@ -3138,7 +3135,7 @@
     </row>
     <row r="129" spans="1:5">
       <c r="A129" s="79" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B129" s="82" t="n">
         <v>105589224.49</v>
@@ -3147,7 +3144,7 @@
         <v>120</v>
       </c>
       <c r="D129" s="82" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E129" s="82" t="s">
         <v>22</v>
@@ -3196,7 +3193,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="14" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="2" spans="1:2">

--- a/reports/Reporte-APS-Mallas.xlsx
+++ b/reports/Reporte-APS-Mallas.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="212">
   <si>
     <t>Alianza Compañía de Seguros y Reaseguros S.A.</t>
   </si>
@@ -90,7 +90,7 @@
     <t>5%</t>
   </si>
   <si>
-    <t>93.97%</t>
+    <t>93.32%</t>
   </si>
   <si>
     <t/>
@@ -99,13 +99,13 @@
     <t> -   Recursos de Inversión Admisibles</t>
   </si>
   <si>
-    <t>128.97%</t>
+    <t>128.32%</t>
   </si>
   <si>
     <t> -   Exceso Absoluto</t>
   </si>
   <si>
-    <t>28.97%</t>
+    <t>28.32%</t>
   </si>
   <si>
     <t> -   Menos: Previsión contable</t>
@@ -204,7 +204,7 @@
     <t>ALI</t>
   </si>
   <si>
-    <t>4.45%</t>
+    <t>3.81%</t>
   </si>
   <si>
     <t>10   %</t>
@@ -387,6 +387,9 @@
     <t>TOTAL CARTERA POR EMISOR</t>
   </si>
   <si>
+    <t>93.33%</t>
+  </si>
+  <si>
     <t>CARTERA DE INVERSIONES POR EMISIÓN</t>
   </si>
   <si>
@@ -405,7 +408,7 @@
     <t>ALI1U</t>
   </si>
   <si>
-    <t>18.49%</t>
+    <t>15.81%</t>
   </si>
   <si>
     <t>20%</t>
@@ -579,12 +582,6 @@
     <t>CFC</t>
   </si>
   <si>
-    <t>CGF-N1A-16</t>
-  </si>
-  <si>
-    <t>3.29%</t>
-  </si>
-  <si>
     <t>CRF-N1U-15</t>
   </si>
   <si>
@@ -631,12 +628,6 @@
   </si>
   <si>
     <t>NO CUMPLE</t>
-  </si>
-  <si>
-    <t>TSM-PB2-E2U</t>
-  </si>
-  <si>
-    <t>12.61%</t>
   </si>
   <si>
     <t>CARTERA DE INVERSIONES LÍMITES POR CATEGORÍA Y NIVELES DE RIESGO</t>
@@ -665,7 +656,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt formatCode="#,##0.00; (#,##0.00); -" numFmtId="164"/>
+    <numFmt formatCode="#,##0.00; (#,##0.00); 0" numFmtId="164"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -1021,8 +1012,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="84">
     <xf applyFont="1" fontId="0"/>
+    <xf applyFont="1" fontId="1" applyNumberFormat="1" numFmtId="164" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1" wrapText="1"/>
+    </xf>
     <xf applyFont="1" fontId="0" applyBorder="1" borderId="1"/>
     <xf applyFont="1" fontId="0" applyBorder="1" borderId="2"/>
     <xf applyFont="1" fontId="0" applyBorder="1" borderId="3"/>
@@ -1036,32 +1030,32 @@
     <xf applyFont="1" fontId="0" applyBorder="1" borderId="11"/>
     <xf applyFont="1" fontId="0" applyBorder="1" borderId="12"/>
     <xf applyFont="1" fontId="0" applyBorder="1" borderId="13"/>
-    <xf applyFont="1" fontId="1" applyNumberFormat="1" numFmtId="164" applyAlignment="1">
+    <xf applyFont="1" fontId="1" applyAlignment="1">
       <alignment horizontal="left" shrinkToFit="1" wrapText="1"/>
     </xf>
-    <xf applyFont="1" fontId="2" applyBorder="1" borderId="7" applyNumberFormat="1" numFmtId="164" applyAlignment="1">
+    <xf applyFont="1" fontId="1" applyBorder="1" borderId="7" applyNumberFormat="1" numFmtId="164" applyAlignment="1">
       <alignment horizontal="left" shrinkToFit="1" wrapText="1"/>
     </xf>
-    <xf applyFont="1" fontId="2" applyBorder="1" borderId="3" applyNumberFormat="1" numFmtId="164" applyAlignment="1">
+    <xf applyFont="1" fontId="1" applyBorder="1" borderId="3" applyNumberFormat="1" numFmtId="164" applyAlignment="1">
       <alignment horizontal="left" shrinkToFit="1" wrapText="1"/>
     </xf>
     <xf applyFont="1" fontId="0" applyBorder="1" borderId="14"/>
     <xf applyFont="1" fontId="2" applyBorder="1" borderId="15" applyNumberFormat="1" numFmtId="164" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyFont="1" fontId="2" applyBorder="1" borderId="11" applyNumberFormat="1" numFmtId="164" applyAlignment="1">
+    <xf applyFont="1" fontId="1" applyBorder="1" borderId="11" applyNumberFormat="1" numFmtId="164" applyAlignment="1">
       <alignment horizontal="left" shrinkToFit="1" wrapText="1"/>
     </xf>
-    <xf applyFont="1" fontId="2" applyBorder="1" borderId="11" applyNumberFormat="1" numFmtId="164" applyAlignment="1">
+    <xf applyFont="1" fontId="1" applyBorder="1" borderId="11" applyNumberFormat="1" numFmtId="164" applyAlignment="1">
       <alignment horizontal="right" shrinkToFit="1" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyFont="1" fontId="2" applyBorder="1" borderId="8" applyNumberFormat="1" numFmtId="164" applyAlignment="1">
+    <xf applyFont="1" fontId="1" applyBorder="1" borderId="8" applyNumberFormat="1" numFmtId="164" applyAlignment="1">
       <alignment horizontal="left" shrinkToFit="1" wrapText="1"/>
     </xf>
-    <xf applyFont="1" fontId="2" applyBorder="1" borderId="1" applyNumberFormat="1" numFmtId="164" applyAlignment="1">
+    <xf applyFont="1" fontId="1" applyBorder="1" borderId="1" applyNumberFormat="1" numFmtId="164" applyAlignment="1">
       <alignment horizontal="left" shrinkToFit="1" wrapText="1"/>
     </xf>
-    <xf applyFont="1" fontId="2" applyBorder="1" borderId="12" applyNumberFormat="1" numFmtId="164" applyAlignment="1">
+    <xf applyFont="1" fontId="1" applyBorder="1" borderId="12" applyNumberFormat="1" numFmtId="164" applyAlignment="1">
       <alignment horizontal="left" shrinkToFit="1" wrapText="1"/>
     </xf>
     <xf applyFont="1" fontId="0" applyBorder="1" borderId="16"/>
@@ -1071,19 +1065,19 @@
     <xf applyFont="1" fontId="2" applyBorder="1" borderId="18" applyNumberFormat="1" numFmtId="164" applyAlignment="1">
       <alignment horizontal="right" shrinkToFit="1" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyFont="1" fontId="2" applyBorder="1" borderId="9" applyNumberFormat="1" numFmtId="164" applyAlignment="1">
+    <xf applyFont="1" fontId="1" applyBorder="1" borderId="9" applyNumberFormat="1" numFmtId="164" applyAlignment="1">
       <alignment horizontal="left" shrinkToFit="1" wrapText="1"/>
     </xf>
-    <xf applyFont="1" fontId="2" applyBorder="1" borderId="5" applyNumberFormat="1" numFmtId="164" applyAlignment="1">
+    <xf applyFont="1" fontId="1" applyBorder="1" borderId="5" applyNumberFormat="1" numFmtId="164" applyAlignment="1">
       <alignment horizontal="left" shrinkToFit="1" wrapText="1"/>
     </xf>
-    <xf applyFont="1" fontId="2" applyBorder="1" borderId="13" applyNumberFormat="1" numFmtId="164" applyAlignment="1">
+    <xf applyFont="1" fontId="1" applyBorder="1" borderId="13" applyNumberFormat="1" numFmtId="164" applyAlignment="1">
       <alignment horizontal="left" shrinkToFit="1" wrapText="1"/>
     </xf>
-    <xf applyFont="1" fontId="2" applyBorder="1" borderId="5" applyNumberFormat="1" numFmtId="164" applyAlignment="1">
+    <xf applyFont="1" fontId="1" applyBorder="1" borderId="5" applyNumberFormat="1" numFmtId="164" applyAlignment="1">
       <alignment horizontal="right" shrinkToFit="1" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyFont="1" fontId="2" applyBorder="1" borderId="13" applyNumberFormat="1" numFmtId="164" applyAlignment="1">
+    <xf applyFont="1" fontId="1" applyBorder="1" borderId="13" applyNumberFormat="1" numFmtId="164" applyAlignment="1">
       <alignment horizontal="right" shrinkToFit="1" vertical="center" wrapText="1"/>
     </xf>
     <xf applyFont="1" fontId="0" applyFill="1" fillId="2" applyBorder="1" borderId="16"/>
@@ -1112,11 +1106,11 @@
       <alignment horizontal="left" indent="1" relativeIndent="3" shrinkToFit="1" wrapText="1"/>
     </xf>
     <xf applyFont="1" fontId="3"/>
-    <xf applyFont="1" fontId="3" applyNumberFormat="1" numFmtId="164" applyAlignment="1">
+    <xf applyFont="1" fontId="3" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyFont="1" fontId="0" applyBorder="1" borderId="24"/>
-    <xf applyFont="1" fontId="3" applyBorder="1" borderId="24" applyNumberFormat="1" numFmtId="164" applyAlignment="1">
+    <xf applyFont="1" fontId="3" applyBorder="1" borderId="24" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyFont="1" fontId="0" applyBorder="1" borderId="25"/>
@@ -1124,7 +1118,7 @@
       <alignment horizontal="left" indent="1" relativeIndent="3" shrinkToFit="1" wrapText="1"/>
     </xf>
     <xf applyFont="1" fontId="2" applyBorder="1" borderId="26"/>
-    <xf applyFont="1" fontId="2" applyBorder="1" borderId="26" applyNumberFormat="1" numFmtId="164" applyAlignment="1">
+    <xf applyFont="1" fontId="2" applyBorder="1" borderId="26" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyFont="1" fontId="3" applyNumberFormat="1" numFmtId="164" applyAlignment="1">
@@ -1134,7 +1128,7 @@
       <alignment horizontal="left" indent="5" relativeIndent="3" shrinkToFit="1" wrapText="1"/>
     </xf>
     <xf applyFont="1" fontId="0" applyFill="1" fillId="2" applyBorder="1" borderId="4"/>
-    <xf applyFont="1" fontId="2" applyFill="1" fillId="2" applyBorder="1" borderId="26" applyNumberFormat="1" numFmtId="164" applyAlignment="1">
+    <xf applyFont="1" fontId="2" applyFill="1" fillId="2" applyBorder="1" borderId="26" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyFont="1" fontId="3" applyBorder="1" borderId="23"/>
@@ -1218,7 +1212,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E129"/>
+  <dimension ref="A1:E127"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -1233,1920 +1227,1886 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="15" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="20" t="n">
+      <c r="C4" s="21" t="n">
         <v>6.86</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="25" t="n">
+      <c r="B5" s="26" t="n">
         <v>312198803.96</v>
       </c>
-      <c r="C5" s="26"/>
+      <c r="C5" s="27"/>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="33" t="n">
+      <c r="B6" s="34" t="n">
         <v>45510029.73</v>
       </c>
-      <c r="C6" s="34"/>
+      <c r="C6" s="35"/>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="37" t="s">
+      <c r="A8" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="39" t="s">
+      <c r="B8" s="40" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="42" t="s">
+      <c r="A9" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="46" t="n">
+      <c r="B9" s="47" t="n">
         <v>14633005.03</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="42" t="s">
+      <c r="A10" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="46" t="n">
+      <c r="B10" s="47" t="n">
         <v>1400876.37</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="42" t="s">
+      <c r="A11" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="46" t="n">
+      <c r="B11" s="47" t="n">
         <v>6783170.16</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="42" t="s">
+      <c r="A12" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="46" t="n">
+      <c r="B12" s="47" t="n">
         <v>5438988.29</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="48" t="s">
+      <c r="A13" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="50" t="n">
-        <v>46748316.7</v>
+      <c r="B13" s="51" t="n">
+        <v>46454071.43</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="52" t="s">
+      <c r="A14" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="46" t="n">
-        <v>42764415.93</v>
+      <c r="B14" s="47" t="n">
+        <v>42470170.66</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="52" t="s">
+      <c r="A15" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="46" t="n">
+      <c r="B15" s="47" t="n">
         <v>3983900.78</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="48" t="s">
+      <c r="A16" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="54" t="n">
-        <v>75004356.56</v>
+      <c r="B16" s="55" t="n">
+        <v>74710111.29</v>
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="37" t="s">
+      <c r="A18" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="39" t="s">
+      <c r="B18" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="39" t="s">
+      <c r="C18" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="39" t="s">
+      <c r="D18" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="E18" s="39" t="s">
+      <c r="E18" s="40" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="56" t="s">
+      <c r="A19" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="46" t="n">
+      <c r="B19" s="47" t="n">
         <v>13653008.92</v>
       </c>
-      <c r="C19" s="46" t="s">
+      <c r="C19" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="46" t="s">
+      <c r="D19" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="E19" s="46" t="s">
+      <c r="E19" s="47" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="56" t="s">
+      <c r="A20" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="46" t="n">
+      <c r="B20" s="47" t="n">
         <v>2275501.49</v>
       </c>
-      <c r="C20" s="46" t="s">
+      <c r="C20" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="46" t="s">
+      <c r="D20" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="E20" s="46" t="s">
+      <c r="E20" s="47" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="56" t="s">
+      <c r="A21" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="46" t="n">
-        <v>42764415.93</v>
-      </c>
-      <c r="C21" s="46" t="s">
+      <c r="B21" s="47" t="n">
+        <v>42470170.66</v>
+      </c>
+      <c r="C21" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="E21" s="46" t="s">
+      <c r="D21" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="47" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="48" t="s">
+      <c r="A22" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="50" t="n">
-        <v>58692926.34</v>
-      </c>
-      <c r="C22" s="46" t="s">
+      <c r="B22" s="51" t="n">
+        <v>58398681.07</v>
+      </c>
+      <c r="C22" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="E22" s="46" t="s">
+      <c r="D22" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" s="47" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="56" t="s">
+      <c r="A23" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="46" t="n">
-        <v>13182896.61</v>
-      </c>
-      <c r="C23" s="46" t="s">
+      <c r="B23" s="47" t="n">
+        <v>12888651.34</v>
+      </c>
+      <c r="C23" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="E23" s="46" t="s">
+      <c r="D23" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" s="47" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="60" t="s">
+      <c r="A24" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="46" t="n">
+      <c r="B24" s="47" t="n">
         <v>0</v>
       </c>
-      <c r="C24" s="46" t="s">
+      <c r="C24" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="D24" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="E24" s="46" t="s">
+      <c r="D24" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24" s="47" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="48" t="s">
+      <c r="A25" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="54" t="n">
-        <v>13182896.61</v>
-      </c>
-      <c r="C25" s="54" t="s">
+      <c r="B25" s="55" t="n">
+        <v>12888651.34</v>
+      </c>
+      <c r="C25" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="D25" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="E25" s="54" t="s">
+      <c r="D25" s="55" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" s="55" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="37" t="s">
+      <c r="A27" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="B27" s="37"/>
-      <c r="C27" s="37"/>
-      <c r="D27" s="37"/>
-      <c r="E27" s="37"/>
+      <c r="B27" s="38"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="38"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="37" t="s">
+      <c r="A28" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="B28" s="39" t="s">
+      <c r="B28" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="C28" s="39" t="s">
+      <c r="C28" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="D28" s="39" t="s">
+      <c r="D28" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="E28" s="39" t="s">
+      <c r="E28" s="40" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="62" t="s">
+      <c r="A29" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="B29" s="64" t="n">
+      <c r="B29" s="65" t="n">
         <v>33597347.82</v>
       </c>
-      <c r="C29" s="66" t="s">
+      <c r="C29" s="67" t="s">
         <v>37</v>
       </c>
-      <c r="D29" s="66" t="s">
+      <c r="D29" s="67" t="s">
         <v>38</v>
       </c>
-      <c r="E29" s="66" t="s">
+      <c r="E29" s="67" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="69" t="s">
+      <c r="A30" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="B30" s="71" t="n">
-        <v>3685783.04</v>
-      </c>
-      <c r="C30" s="71" t="s">
-        <v>26</v>
-      </c>
-      <c r="D30" s="71" t="s">
-        <v>26</v>
-      </c>
-      <c r="E30" s="71" t="s">
+      <c r="B30" s="72" t="n">
+        <v>3391537.77</v>
+      </c>
+      <c r="C30" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="E30" s="72" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="62" t="s">
+      <c r="A31" s="63" t="s">
         <v>40</v>
       </c>
-      <c r="B31" s="64" t="n">
+      <c r="B31" s="65" t="n">
         <v>29247144.12</v>
       </c>
-      <c r="C31" s="66" t="s">
+      <c r="C31" s="67" t="s">
         <v>41</v>
       </c>
-      <c r="D31" s="66" t="s">
+      <c r="D31" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="E31" s="66" t="s">
+      <c r="E31" s="67" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="72" t="s">
+      <c r="A32" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="B32" s="73" t="n">
+      <c r="B32" s="74" t="n">
         <v>11275058.19</v>
       </c>
-      <c r="C32" s="71" t="s">
+      <c r="C32" s="72" t="s">
         <v>44</v>
       </c>
-      <c r="D32" s="71" t="s">
+      <c r="D32" s="72" t="s">
         <v>45</v>
       </c>
-      <c r="E32" s="71" t="s">
+      <c r="E32" s="72" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="69" t="s">
+      <c r="A33" s="70" t="s">
         <v>46</v>
       </c>
-      <c r="B33" s="71" t="n">
+      <c r="B33" s="72" t="n">
         <v>1536145.83</v>
       </c>
-      <c r="C33" s="71" t="s">
-        <v>26</v>
-      </c>
-      <c r="D33" s="71" t="s">
-        <v>26</v>
-      </c>
-      <c r="E33" s="71" t="s">
+      <c r="C33" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="D33" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="E33" s="72" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="69" t="s">
+      <c r="A34" s="70" t="s">
         <v>47</v>
       </c>
-      <c r="B34" s="71" t="n">
+      <c r="B34" s="72" t="n">
         <v>9738912.36</v>
       </c>
-      <c r="C34" s="71" t="s">
-        <v>26</v>
-      </c>
-      <c r="D34" s="71" t="s">
-        <v>26</v>
-      </c>
-      <c r="E34" s="71" t="s">
+      <c r="C34" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="D34" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="E34" s="72" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="72" t="s">
+      <c r="A35" s="73" t="s">
         <v>48</v>
       </c>
-      <c r="B35" s="73" t="n">
+      <c r="B35" s="74" t="n">
         <v>17972085.93</v>
       </c>
-      <c r="C35" s="71" t="s">
+      <c r="C35" s="72" t="s">
         <v>49</v>
       </c>
-      <c r="D35" s="71" t="s">
+      <c r="D35" s="72" t="s">
         <v>45</v>
       </c>
-      <c r="E35" s="71" t="s">
+      <c r="E35" s="72" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="69" t="s">
+      <c r="A36" s="70" t="s">
         <v>46</v>
       </c>
-      <c r="B36" s="71" t="n">
+      <c r="B36" s="72" t="n">
         <v>1841439.36</v>
       </c>
-      <c r="C36" s="71" t="s">
-        <v>26</v>
-      </c>
-      <c r="D36" s="71" t="s">
-        <v>26</v>
-      </c>
-      <c r="E36" s="71" t="s">
+      <c r="C36" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="D36" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="E36" s="72" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="69" t="s">
+      <c r="A37" s="70" t="s">
         <v>47</v>
       </c>
-      <c r="B37" s="71" t="n">
+      <c r="B37" s="72" t="n">
         <v>16130646.57</v>
       </c>
-      <c r="C37" s="71" t="s">
-        <v>26</v>
-      </c>
-      <c r="D37" s="71" t="s">
-        <v>26</v>
-      </c>
-      <c r="E37" s="71" t="s">
+      <c r="C37" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="D37" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="E37" s="72" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="62" t="s">
+      <c r="A38" s="63" t="s">
         <v>50</v>
       </c>
-      <c r="B38" s="64" t="n">
+      <c r="B38" s="65" t="n">
         <v>4350203.7</v>
       </c>
-      <c r="C38" s="66" t="s">
+      <c r="C38" s="67" t="s">
         <v>51</v>
       </c>
-      <c r="D38" s="66" t="s">
+      <c r="D38" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="E38" s="66" t="s">
+      <c r="E38" s="67" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="69" t="s">
+      <c r="A39" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="B39" s="71" t="n">
+      <c r="B39" s="72" t="n">
         <v>4350203.7</v>
       </c>
-      <c r="C39" s="71" t="s">
-        <v>26</v>
-      </c>
-      <c r="D39" s="71" t="s">
-        <v>26</v>
-      </c>
-      <c r="E39" s="71" t="s">
+      <c r="C39" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="D39" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="E39" s="72" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="62" t="s">
+      <c r="A40" s="63" t="s">
         <v>54</v>
       </c>
-      <c r="B40" s="64" t="n">
+      <c r="B40" s="65" t="n">
         <v>5481284.96</v>
       </c>
-      <c r="C40" s="66" t="s">
+      <c r="C40" s="67" t="s">
         <v>55</v>
       </c>
-      <c r="D40" s="66" t="s">
+      <c r="D40" s="67" t="s">
         <v>56</v>
       </c>
-      <c r="E40" s="66" t="s">
+      <c r="E40" s="67" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="69" t="s">
+      <c r="A41" s="70" t="s">
         <v>57</v>
       </c>
-      <c r="B41" s="71" t="n">
+      <c r="B41" s="72" t="n">
         <v>3499730.96</v>
       </c>
-      <c r="C41" s="71" t="s">
-        <v>26</v>
-      </c>
-      <c r="D41" s="71" t="s">
-        <v>26</v>
-      </c>
-      <c r="E41" s="71" t="s">
+      <c r="C41" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="D41" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="E41" s="72" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="69" t="s">
+      <c r="A42" s="70" t="s">
         <v>58</v>
       </c>
-      <c r="B42" s="71" t="n">
+      <c r="B42" s="72" t="n">
         <v>1981554</v>
       </c>
-      <c r="C42" s="71" t="s">
-        <v>26</v>
-      </c>
-      <c r="D42" s="71" t="s">
-        <v>26</v>
-      </c>
-      <c r="E42" s="71" t="s">
+      <c r="C42" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="D42" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="E42" s="72" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="62" t="s">
+      <c r="A43" s="63" t="s">
         <v>59</v>
       </c>
-      <c r="B43" s="76" t="n">
+      <c r="B43" s="77" t="n">
         <v>39078632.78</v>
       </c>
-      <c r="C43" s="76" t="s">
+      <c r="C43" s="77" t="s">
         <v>60</v>
       </c>
-      <c r="D43" s="76" t="s">
-        <v>26</v>
-      </c>
-      <c r="E43" s="76" t="s">
+      <c r="D43" s="77" t="s">
+        <v>26</v>
+      </c>
+      <c r="E43" s="77" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="37" t="s">
+      <c r="A45" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="B45" s="37"/>
-      <c r="C45" s="37"/>
-      <c r="D45" s="37"/>
-      <c r="E45" s="37"/>
+      <c r="B45" s="38"/>
+      <c r="C45" s="38"/>
+      <c r="D45" s="38"/>
+      <c r="E45" s="38"/>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="37" t="s">
+      <c r="A46" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="B46" s="39" t="s">
+      <c r="B46" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="C46" s="39" t="s">
+      <c r="C46" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="D46" s="39" t="s">
+      <c r="D46" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="E46" s="39" t="s">
+      <c r="E46" s="40" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="56" t="s">
+      <c r="A47" s="57" t="s">
         <v>62</v>
       </c>
-      <c r="B47" s="46" t="n">
-        <v>2027152.19</v>
-      </c>
-      <c r="C47" s="46" t="s">
+      <c r="B47" s="47" t="n">
+        <v>1732906.92</v>
+      </c>
+      <c r="C47" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="D47" s="46" t="s">
+      <c r="D47" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="E47" s="46" t="s">
+      <c r="E47" s="47" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="56" t="s">
+      <c r="A48" s="57" t="s">
         <v>65</v>
       </c>
-      <c r="B48" s="46" t="n">
+      <c r="B48" s="47" t="n">
         <v>2203068.99</v>
       </c>
-      <c r="C48" s="46" t="s">
+      <c r="C48" s="47" t="s">
         <v>66</v>
       </c>
-      <c r="D48" s="46" t="s">
+      <c r="D48" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="E48" s="46" t="s">
+      <c r="E48" s="47" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" s="56" t="s">
+      <c r="A49" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="B49" s="46" t="n">
+      <c r="B49" s="47" t="n">
         <v>4375993.21</v>
       </c>
-      <c r="C49" s="46" t="s">
+      <c r="C49" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="D49" s="46" t="s">
+      <c r="D49" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="E49" s="46" t="s">
+      <c r="E49" s="47" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="56" t="s">
+      <c r="A50" s="57" t="s">
         <v>69</v>
       </c>
-      <c r="B50" s="46" t="n">
+      <c r="B50" s="47" t="n">
         <v>102918.73</v>
       </c>
-      <c r="C50" s="46" t="s">
+      <c r="C50" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="D50" s="46" t="s">
+      <c r="D50" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="E50" s="46" t="s">
+      <c r="E50" s="47" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="56" t="s">
+      <c r="A51" s="57" t="s">
         <v>71</v>
       </c>
-      <c r="B51" s="46" t="n">
+      <c r="B51" s="47" t="n">
         <v>808004.38</v>
       </c>
-      <c r="C51" s="46" t="s">
+      <c r="C51" s="47" t="s">
         <v>72</v>
       </c>
-      <c r="D51" s="46" t="s">
+      <c r="D51" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="E51" s="46" t="s">
+      <c r="E51" s="47" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="56" t="s">
+      <c r="A52" s="57" t="s">
         <v>73</v>
       </c>
-      <c r="B52" s="46" t="n">
+      <c r="B52" s="47" t="n">
         <v>3854963.95</v>
       </c>
-      <c r="C52" s="46" t="s">
+      <c r="C52" s="47" t="s">
         <v>74</v>
       </c>
-      <c r="D52" s="46" t="s">
+      <c r="D52" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="E52" s="46" t="s">
+      <c r="E52" s="47" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" s="56" t="s">
+      <c r="A53" s="57" t="s">
         <v>75</v>
       </c>
-      <c r="B53" s="46" t="n">
+      <c r="B53" s="47" t="n">
         <v>94903.79</v>
       </c>
-      <c r="C53" s="46" t="s">
+      <c r="C53" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="D53" s="46" t="s">
+      <c r="D53" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="E53" s="46" t="s">
+      <c r="E53" s="47" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54" s="56" t="s">
+      <c r="A54" s="57" t="s">
         <v>77</v>
       </c>
-      <c r="B54" s="46" t="n">
+      <c r="B54" s="47" t="n">
         <v>574559.05</v>
       </c>
-      <c r="C54" s="46" t="s">
+      <c r="C54" s="47" t="s">
         <v>78</v>
       </c>
-      <c r="D54" s="46" t="s">
+      <c r="D54" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="E54" s="46" t="s">
+      <c r="E54" s="47" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="55" spans="1:5">
-      <c r="A55" s="56" t="s">
+      <c r="A55" s="57" t="s">
         <v>79</v>
       </c>
-      <c r="B55" s="46" t="n">
+      <c r="B55" s="47" t="n">
         <v>3675452.76</v>
       </c>
-      <c r="C55" s="46" t="s">
+      <c r="C55" s="47" t="s">
         <v>80</v>
       </c>
-      <c r="D55" s="46" t="s">
+      <c r="D55" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="E55" s="46" t="s">
+      <c r="E55" s="47" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" s="56" t="s">
+      <c r="A56" s="57" t="s">
         <v>81</v>
       </c>
-      <c r="B56" s="46" t="n">
+      <c r="B56" s="47" t="n">
         <v>3493693.84</v>
       </c>
-      <c r="C56" s="46" t="s">
+      <c r="C56" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="D56" s="46" t="s">
+      <c r="D56" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="E56" s="46" t="s">
+      <c r="E56" s="47" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57" s="56" t="s">
+      <c r="A57" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="B57" s="46" t="n">
+      <c r="B57" s="47" t="n">
         <v>959965.23</v>
       </c>
-      <c r="C57" s="46" t="s">
+      <c r="C57" s="47" t="s">
         <v>84</v>
       </c>
-      <c r="D57" s="46" t="s">
+      <c r="D57" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="E57" s="46" t="s">
+      <c r="E57" s="47" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="58" spans="1:5">
-      <c r="A58" s="56" t="s">
+      <c r="A58" s="57" t="s">
         <v>85</v>
       </c>
-      <c r="B58" s="46" t="n">
+      <c r="B58" s="47" t="n">
         <v>2179330.41</v>
       </c>
-      <c r="C58" s="46" t="s">
+      <c r="C58" s="47" t="s">
         <v>86</v>
       </c>
-      <c r="D58" s="46" t="s">
+      <c r="D58" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="E58" s="46" t="s">
+      <c r="E58" s="47" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" s="56" t="s">
+      <c r="A59" s="57" t="s">
         <v>87</v>
       </c>
-      <c r="B59" s="46" t="n">
+      <c r="B59" s="47" t="n">
         <v>589694.22</v>
       </c>
-      <c r="C59" s="46" t="s">
+      <c r="C59" s="47" t="s">
         <v>88</v>
       </c>
-      <c r="D59" s="46" t="s">
+      <c r="D59" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="E59" s="46" t="s">
+      <c r="E59" s="47" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="60" spans="1:5">
-      <c r="A60" s="56" t="s">
+      <c r="A60" s="57" t="s">
         <v>89</v>
       </c>
-      <c r="B60" s="46" t="n">
+      <c r="B60" s="47" t="n">
         <v>481987.83</v>
       </c>
-      <c r="C60" s="46" t="s">
+      <c r="C60" s="47" t="s">
         <v>90</v>
       </c>
-      <c r="D60" s="46" t="s">
+      <c r="D60" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="E60" s="46" t="s">
+      <c r="E60" s="47" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="61" spans="1:5">
-      <c r="A61" s="56" t="s">
+      <c r="A61" s="57" t="s">
         <v>91</v>
       </c>
-      <c r="B61" s="46" t="n">
+      <c r="B61" s="47" t="n">
         <v>2534501.56</v>
       </c>
-      <c r="C61" s="46" t="s">
+      <c r="C61" s="47" t="s">
         <v>92</v>
       </c>
-      <c r="D61" s="46" t="s">
+      <c r="D61" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="E61" s="46" t="s">
+      <c r="E61" s="47" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="62" spans="1:5">
-      <c r="A62" s="56" t="s">
+      <c r="A62" s="57" t="s">
         <v>93</v>
       </c>
-      <c r="B62" s="46" t="n">
+      <c r="B62" s="47" t="n">
         <v>359420.87</v>
       </c>
-      <c r="C62" s="46" t="s">
+      <c r="C62" s="47" t="s">
         <v>94</v>
       </c>
-      <c r="D62" s="46" t="s">
+      <c r="D62" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="E62" s="46" t="s">
+      <c r="E62" s="47" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="63" spans="1:5">
-      <c r="A63" s="56" t="s">
+      <c r="A63" s="57" t="s">
         <v>95</v>
       </c>
-      <c r="B63" s="46" t="n">
+      <c r="B63" s="47" t="n">
         <v>2010443.87</v>
       </c>
-      <c r="C63" s="46" t="s">
+      <c r="C63" s="47" t="s">
         <v>96</v>
       </c>
-      <c r="D63" s="46" t="s">
+      <c r="D63" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="E63" s="46" t="s">
+      <c r="E63" s="47" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="64" spans="1:5">
-      <c r="A64" s="56" t="s">
+      <c r="A64" s="57" t="s">
         <v>97</v>
       </c>
-      <c r="B64" s="46" t="n">
+      <c r="B64" s="47" t="n">
         <v>434588.92</v>
       </c>
-      <c r="C64" s="46" t="s">
+      <c r="C64" s="47" t="s">
         <v>98</v>
       </c>
-      <c r="D64" s="46" t="s">
+      <c r="D64" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="E64" s="46" t="s">
+      <c r="E64" s="47" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="65" spans="1:5">
-      <c r="A65" s="56" t="s">
+      <c r="A65" s="57" t="s">
         <v>99</v>
       </c>
-      <c r="B65" s="46" t="n">
+      <c r="B65" s="47" t="n">
         <v>2859566.66</v>
       </c>
-      <c r="C65" s="46" t="s">
+      <c r="C65" s="47" t="s">
         <v>100</v>
       </c>
-      <c r="D65" s="46" t="s">
+      <c r="D65" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="E65" s="46" t="s">
+      <c r="E65" s="47" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="66" spans="1:5">
-      <c r="A66" s="56" t="s">
+      <c r="A66" s="57" t="s">
         <v>101</v>
       </c>
-      <c r="B66" s="46" t="n">
+      <c r="B66" s="47" t="n">
         <v>480334.84</v>
       </c>
-      <c r="C66" s="46" t="s">
+      <c r="C66" s="47" t="s">
         <v>90</v>
       </c>
-      <c r="D66" s="46" t="s">
+      <c r="D66" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="E66" s="46" t="s">
+      <c r="E66" s="47" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="67" spans="1:5">
-      <c r="A67" s="56" t="s">
+      <c r="A67" s="57" t="s">
         <v>102</v>
       </c>
-      <c r="B67" s="46" t="n">
+      <c r="B67" s="47" t="n">
         <v>74538.63</v>
       </c>
-      <c r="C67" s="46" t="s">
+      <c r="C67" s="47" t="s">
         <v>103</v>
       </c>
-      <c r="D67" s="46" t="s">
+      <c r="D67" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="E67" s="46" t="s">
+      <c r="E67" s="47" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="68" spans="1:5">
-      <c r="A68" s="56" t="s">
+      <c r="A68" s="57" t="s">
         <v>104</v>
       </c>
-      <c r="B68" s="46" t="n">
+      <c r="B68" s="47" t="n">
         <v>406944.8</v>
       </c>
-      <c r="C68" s="46" t="s">
+      <c r="C68" s="47" t="s">
         <v>105</v>
       </c>
-      <c r="D68" s="46" t="s">
+      <c r="D68" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="E68" s="46" t="s">
+      <c r="E68" s="47" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="69" spans="1:5">
-      <c r="A69" s="56" t="s">
+      <c r="A69" s="57" t="s">
         <v>106</v>
       </c>
-      <c r="B69" s="46" t="n">
+      <c r="B69" s="47" t="n">
         <v>4061202.04</v>
       </c>
-      <c r="C69" s="46" t="s">
+      <c r="C69" s="47" t="s">
         <v>107</v>
       </c>
-      <c r="D69" s="46" t="s">
+      <c r="D69" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="E69" s="46" t="s">
+      <c r="E69" s="47" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="70" spans="1:5">
-      <c r="A70" s="56" t="s">
+      <c r="A70" s="57" t="s">
         <v>108</v>
       </c>
-      <c r="B70" s="46" t="n">
+      <c r="B70" s="47" t="n">
         <v>74164.59</v>
       </c>
-      <c r="C70" s="46" t="s">
+      <c r="C70" s="47" t="s">
         <v>103</v>
       </c>
-      <c r="D70" s="46" t="s">
+      <c r="D70" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="E70" s="46" t="s">
+      <c r="E70" s="47" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="71" spans="1:5">
-      <c r="A71" s="56" t="s">
+      <c r="A71" s="57" t="s">
         <v>109</v>
       </c>
-      <c r="B71" s="46" t="n">
+      <c r="B71" s="47" t="n">
         <v>202964</v>
       </c>
-      <c r="C71" s="46" t="s">
+      <c r="C71" s="47" t="s">
         <v>110</v>
       </c>
-      <c r="D71" s="46" t="s">
+      <c r="D71" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="E71" s="46" t="s">
+      <c r="E71" s="47" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="72" spans="1:5">
-      <c r="A72" s="56" t="s">
+      <c r="A72" s="57" t="s">
         <v>111</v>
       </c>
-      <c r="B72" s="46" t="n">
+      <c r="B72" s="47" t="n">
         <v>89989.11</v>
       </c>
-      <c r="C72" s="46" t="s">
+      <c r="C72" s="47" t="s">
         <v>112</v>
       </c>
-      <c r="D72" s="46" t="s">
+      <c r="D72" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="E72" s="46" t="s">
+      <c r="E72" s="47" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="73" spans="1:5">
-      <c r="A73" s="56" t="s">
+      <c r="A73" s="57" t="s">
         <v>113</v>
       </c>
-      <c r="B73" s="46" t="n">
+      <c r="B73" s="47" t="n">
         <v>1147492.48</v>
       </c>
-      <c r="C73" s="46" t="s">
+      <c r="C73" s="47" t="s">
         <v>114</v>
       </c>
-      <c r="D73" s="46" t="s">
+      <c r="D73" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="E73" s="46" t="s">
+      <c r="E73" s="47" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="74" spans="1:5">
-      <c r="A74" s="56" t="s">
+      <c r="A74" s="57" t="s">
         <v>115</v>
       </c>
-      <c r="B74" s="46" t="n">
+      <c r="B74" s="47" t="n">
         <v>729695.25</v>
       </c>
-      <c r="C74" s="46" t="s">
+      <c r="C74" s="47" t="s">
         <v>116</v>
       </c>
-      <c r="D74" s="46" t="s">
+      <c r="D74" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="E74" s="46" t="s">
+      <c r="E74" s="47" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="75" spans="1:5">
-      <c r="A75" s="56" t="s">
+      <c r="A75" s="57" t="s">
         <v>117</v>
       </c>
-      <c r="B75" s="46" t="n">
+      <c r="B75" s="47" t="n">
         <v>64687.38</v>
       </c>
-      <c r="C75" s="46" t="s">
+      <c r="C75" s="47" t="s">
         <v>118</v>
       </c>
-      <c r="D75" s="46" t="s">
+      <c r="D75" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="E75" s="46" t="s">
+      <c r="E75" s="47" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="76" spans="1:5">
-      <c r="A76" s="56" t="s">
+      <c r="A76" s="57" t="s">
         <v>119</v>
       </c>
-      <c r="B76" s="46" t="n">
+      <c r="B76" s="47" t="n">
         <v>1055892.24</v>
       </c>
-      <c r="C76" s="46" t="s">
+      <c r="C76" s="47" t="s">
         <v>120</v>
       </c>
-      <c r="D76" s="46" t="s">
+      <c r="D76" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="E76" s="46" t="s">
+      <c r="E76" s="47" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="77" spans="1:5">
-      <c r="A77" s="56" t="s">
+      <c r="A77" s="57" t="s">
         <v>121</v>
       </c>
-      <c r="B77" s="46" t="n">
+      <c r="B77" s="47" t="n">
         <v>756300</v>
       </c>
-      <c r="C77" s="46" t="s">
+      <c r="C77" s="47" t="s">
         <v>122</v>
       </c>
-      <c r="D77" s="46" t="s">
+      <c r="D77" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="E77" s="46" t="s">
+      <c r="E77" s="47" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="78" spans="1:5">
-      <c r="A78" s="48" t="s">
+      <c r="A78" s="49" t="s">
         <v>123</v>
       </c>
-      <c r="B78" s="54" t="n">
-        <v>42764415.82</v>
-      </c>
-      <c r="C78" s="54" t="s">
-        <v>25</v>
-      </c>
-      <c r="D78" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="E78" s="54" t="s">
+      <c r="B78" s="55" t="n">
+        <v>42470170.55</v>
+      </c>
+      <c r="C78" s="55" t="s">
+        <v>124</v>
+      </c>
+      <c r="D78" s="55" t="s">
+        <v>26</v>
+      </c>
+      <c r="E78" s="55" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="80" spans="1:5">
-      <c r="A80" s="37" t="s">
-        <v>124</v>
-      </c>
-      <c r="B80" s="37"/>
-      <c r="C80" s="37"/>
-      <c r="D80" s="37"/>
-      <c r="E80" s="37"/>
+      <c r="A80" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="B80" s="38"/>
+      <c r="C80" s="38"/>
+      <c r="D80" s="38"/>
+      <c r="E80" s="38"/>
     </row>
     <row r="81" spans="1:5">
-      <c r="A81" s="37" t="s">
-        <v>125</v>
-      </c>
-      <c r="B81" s="39" t="s">
+      <c r="A81" s="38" t="s">
         <v>126</v>
       </c>
-      <c r="C81" s="39" t="s">
+      <c r="B81" s="40" t="s">
         <v>127</v>
       </c>
-      <c r="D81" s="39" t="s">
+      <c r="C81" s="40" t="s">
+        <v>128</v>
+      </c>
+      <c r="D81" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="E81" s="39" t="s">
+      <c r="E81" s="40" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="82" spans="1:5">
-      <c r="A82" s="62" t="s">
-        <v>128</v>
-      </c>
-      <c r="B82" s="64" t="n">
-        <v>3685783.06</v>
-      </c>
-      <c r="C82" s="66" t="s">
+      <c r="A82" s="63" t="s">
+        <v>129</v>
+      </c>
+      <c r="B82" s="65" t="n">
+        <v>3391537.79</v>
+      </c>
+      <c r="C82" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="D82" s="66" t="s">
-        <v>26</v>
-      </c>
-      <c r="E82" s="66" t="s">
+      <c r="D82" s="67" t="s">
+        <v>26</v>
+      </c>
+      <c r="E82" s="67" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="83" spans="1:5">
-      <c r="A83" s="69" t="s">
-        <v>129</v>
-      </c>
-      <c r="B83" s="71" t="n">
-        <v>2027152.19</v>
-      </c>
-      <c r="C83" s="71" t="s">
+      <c r="A83" s="70" t="s">
         <v>130</v>
       </c>
-      <c r="D83" s="71" t="s">
+      <c r="B83" s="72" t="n">
+        <v>1732906.92</v>
+      </c>
+      <c r="C83" s="72" t="s">
         <v>131</v>
       </c>
-      <c r="E83" s="71" t="s">
+      <c r="D83" s="72" t="s">
+        <v>132</v>
+      </c>
+      <c r="E83" s="72" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="84" spans="1:5">
-      <c r="A84" s="69" t="s">
+      <c r="A84" s="70" t="s">
+        <v>133</v>
+      </c>
+      <c r="B84" s="72" t="n">
+        <v>566819.58</v>
+      </c>
+      <c r="C84" s="72" t="s">
+        <v>134</v>
+      </c>
+      <c r="D84" s="72" t="s">
         <v>132</v>
       </c>
-      <c r="B84" s="71" t="n">
-        <v>566819.58</v>
-      </c>
-      <c r="C84" s="71" t="s">
-        <v>133</v>
-      </c>
-      <c r="D84" s="71" t="s">
-        <v>131</v>
-      </c>
-      <c r="E84" s="71" t="s">
+      <c r="E84" s="72" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="85" spans="1:5">
-      <c r="A85" s="69" t="s">
-        <v>134</v>
-      </c>
-      <c r="B85" s="71" t="n">
+      <c r="A85" s="70" t="s">
+        <v>135</v>
+      </c>
+      <c r="B85" s="72" t="n">
         <v>138152.58</v>
       </c>
-      <c r="C85" s="71" t="s">
-        <v>135</v>
-      </c>
-      <c r="D85" s="71" t="s">
-        <v>131</v>
-      </c>
-      <c r="E85" s="71" t="s">
+      <c r="C85" s="72" t="s">
+        <v>136</v>
+      </c>
+      <c r="D85" s="72" t="s">
+        <v>132</v>
+      </c>
+      <c r="E85" s="72" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="86" spans="1:5">
-      <c r="A86" s="69" t="s">
-        <v>136</v>
-      </c>
-      <c r="B86" s="71" t="n">
+      <c r="A86" s="70" t="s">
+        <v>137</v>
+      </c>
+      <c r="B86" s="72" t="n">
         <v>164052.16</v>
       </c>
-      <c r="C86" s="71" t="s">
-        <v>137</v>
-      </c>
-      <c r="D86" s="71" t="s">
-        <v>131</v>
-      </c>
-      <c r="E86" s="71" t="s">
+      <c r="C86" s="72" t="s">
+        <v>138</v>
+      </c>
+      <c r="D86" s="72" t="s">
+        <v>132</v>
+      </c>
+      <c r="E86" s="72" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="87" spans="1:5">
-      <c r="A87" s="69" t="s">
-        <v>138</v>
-      </c>
-      <c r="B87" s="71" t="n">
+      <c r="A87" s="70" t="s">
+        <v>139</v>
+      </c>
+      <c r="B87" s="72" t="n">
         <v>197379.29</v>
       </c>
-      <c r="C87" s="71" t="s">
-        <v>139</v>
-      </c>
-      <c r="D87" s="71" t="s">
-        <v>131</v>
-      </c>
-      <c r="E87" s="71" t="s">
+      <c r="C87" s="72" t="s">
+        <v>140</v>
+      </c>
+      <c r="D87" s="72" t="s">
+        <v>132</v>
+      </c>
+      <c r="E87" s="72" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="88" spans="1:5">
-      <c r="A88" s="69" t="s">
-        <v>140</v>
-      </c>
-      <c r="B88" s="71" t="n">
+      <c r="A88" s="70" t="s">
+        <v>141</v>
+      </c>
+      <c r="B88" s="72" t="n">
         <v>497323.47</v>
       </c>
-      <c r="C88" s="71" t="s">
-        <v>141</v>
-      </c>
-      <c r="D88" s="71" t="s">
-        <v>131</v>
-      </c>
-      <c r="E88" s="71" t="s">
+      <c r="C88" s="72" t="s">
+        <v>142</v>
+      </c>
+      <c r="D88" s="72" t="s">
+        <v>132</v>
+      </c>
+      <c r="E88" s="72" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="89" spans="1:5">
-      <c r="A89" s="69" t="s">
-        <v>142</v>
-      </c>
-      <c r="B89" s="71" t="n">
+      <c r="A89" s="70" t="s">
+        <v>143</v>
+      </c>
+      <c r="B89" s="72" t="n">
         <v>94903.79</v>
       </c>
-      <c r="C89" s="71" t="s">
-        <v>143</v>
-      </c>
-      <c r="D89" s="71" t="s">
-        <v>131</v>
-      </c>
-      <c r="E89" s="71" t="s">
+      <c r="C89" s="72" t="s">
+        <v>144</v>
+      </c>
+      <c r="D89" s="72" t="s">
+        <v>132</v>
+      </c>
+      <c r="E89" s="72" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="90" spans="1:5">
-      <c r="A90" s="62" t="s">
-        <v>144</v>
-      </c>
-      <c r="B90" s="64" t="n">
+      <c r="A90" s="63" t="s">
+        <v>145</v>
+      </c>
+      <c r="B90" s="65" t="n">
         <v>3377585.19</v>
       </c>
-      <c r="C90" s="66" t="s">
+      <c r="C90" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="D90" s="66" t="s">
-        <v>26</v>
-      </c>
-      <c r="E90" s="66" t="s">
+      <c r="D90" s="67" t="s">
+        <v>26</v>
+      </c>
+      <c r="E90" s="67" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="91" spans="1:5">
-      <c r="A91" s="69" t="s">
-        <v>145</v>
-      </c>
-      <c r="B91" s="71" t="n">
+      <c r="A91" s="70" t="s">
+        <v>146</v>
+      </c>
+      <c r="B91" s="72" t="n">
         <v>5278.63</v>
       </c>
-      <c r="C91" s="71" t="s">
-        <v>146</v>
-      </c>
-      <c r="D91" s="71" t="s">
+      <c r="C91" s="72" t="s">
         <v>147</v>
       </c>
-      <c r="E91" s="71" t="s">
+      <c r="D91" s="72" t="s">
+        <v>148</v>
+      </c>
+      <c r="E91" s="72" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="92" spans="1:5">
-      <c r="A92" s="69" t="s">
+      <c r="A92" s="70" t="s">
+        <v>149</v>
+      </c>
+      <c r="B92" s="72" t="n">
+        <v>8639.94</v>
+      </c>
+      <c r="C92" s="72" t="s">
+        <v>150</v>
+      </c>
+      <c r="D92" s="72" t="s">
         <v>148</v>
       </c>
-      <c r="B92" s="71" t="n">
-        <v>8639.94</v>
-      </c>
-      <c r="C92" s="71" t="s">
-        <v>149</v>
-      </c>
-      <c r="D92" s="71" t="s">
-        <v>147</v>
-      </c>
-      <c r="E92" s="71" t="s">
+      <c r="E92" s="72" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="93" spans="1:5">
-      <c r="A93" s="69" t="s">
-        <v>150</v>
-      </c>
-      <c r="B93" s="71" t="n">
+      <c r="A93" s="70" t="s">
+        <v>151</v>
+      </c>
+      <c r="B93" s="72" t="n">
         <v>292993.88</v>
       </c>
-      <c r="C93" s="71" t="s">
-        <v>151</v>
-      </c>
-      <c r="D93" s="71" t="s">
-        <v>147</v>
-      </c>
-      <c r="E93" s="71" t="s">
+      <c r="C93" s="72" t="s">
+        <v>152</v>
+      </c>
+      <c r="D93" s="72" t="s">
+        <v>148</v>
+      </c>
+      <c r="E93" s="72" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="94" spans="1:5">
-      <c r="A94" s="69" t="s">
+      <c r="A94" s="70" t="s">
+        <v>153</v>
+      </c>
+      <c r="B94" s="72" t="n">
+        <v>615300</v>
+      </c>
+      <c r="C94" s="72" t="s">
+        <v>154</v>
+      </c>
+      <c r="D94" s="72" t="s">
+        <v>148</v>
+      </c>
+      <c r="E94" s="72" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" s="70" t="s">
+        <v>155</v>
+      </c>
+      <c r="B95" s="72" t="n">
+        <v>1034666.33</v>
+      </c>
+      <c r="C95" s="72" t="s">
+        <v>156</v>
+      </c>
+      <c r="D95" s="72" t="s">
+        <v>148</v>
+      </c>
+      <c r="E95" s="72" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" s="70" t="s">
+        <v>157</v>
+      </c>
+      <c r="B96" s="72" t="n">
+        <v>426877.46</v>
+      </c>
+      <c r="C96" s="72" t="s">
+        <v>158</v>
+      </c>
+      <c r="D96" s="72" t="s">
+        <v>148</v>
+      </c>
+      <c r="E96" s="72" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" s="70" t="s">
+        <v>159</v>
+      </c>
+      <c r="B97" s="72" t="n">
+        <v>204602.5</v>
+      </c>
+      <c r="C97" s="72" t="s">
+        <v>160</v>
+      </c>
+      <c r="D97" s="72" t="s">
+        <v>148</v>
+      </c>
+      <c r="E97" s="72" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" s="70" t="s">
+        <v>161</v>
+      </c>
+      <c r="B98" s="72" t="n">
+        <v>160314.72</v>
+      </c>
+      <c r="C98" s="72" t="s">
+        <v>162</v>
+      </c>
+      <c r="D98" s="72" t="s">
+        <v>148</v>
+      </c>
+      <c r="E98" s="72" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" s="70" t="s">
+        <v>163</v>
+      </c>
+      <c r="B99" s="72" t="n">
+        <v>554309.69</v>
+      </c>
+      <c r="C99" s="72" t="s">
+        <v>164</v>
+      </c>
+      <c r="D99" s="72" t="s">
+        <v>148</v>
+      </c>
+      <c r="E99" s="72" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" s="70" t="s">
+        <v>165</v>
+      </c>
+      <c r="B100" s="72" t="n">
+        <v>74602.04</v>
+      </c>
+      <c r="C100" s="72" t="s">
+        <v>166</v>
+      </c>
+      <c r="D100" s="72" t="s">
+        <v>148</v>
+      </c>
+      <c r="E100" s="72" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" s="63" t="s">
+        <v>167</v>
+      </c>
+      <c r="B101" s="65" t="n">
+        <v>3499730.96</v>
+      </c>
+      <c r="C101" s="67" t="s">
+        <v>32</v>
+      </c>
+      <c r="D101" s="67" t="s">
+        <v>26</v>
+      </c>
+      <c r="E101" s="67" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" s="70" t="s">
+        <v>168</v>
+      </c>
+      <c r="B102" s="72" t="n">
+        <v>102918.73</v>
+      </c>
+      <c r="C102" s="72" t="s">
         <v>152</v>
       </c>
-      <c r="B94" s="71" t="n">
-        <v>615300</v>
-      </c>
-      <c r="C94" s="71" t="s">
-        <v>153</v>
-      </c>
-      <c r="D94" s="71" t="s">
-        <v>147</v>
-      </c>
-      <c r="E94" s="71" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
-      <c r="A95" s="69" t="s">
-        <v>154</v>
-      </c>
-      <c r="B95" s="71" t="n">
-        <v>1034666.33</v>
-      </c>
-      <c r="C95" s="71" t="s">
-        <v>155</v>
-      </c>
-      <c r="D95" s="71" t="s">
-        <v>147</v>
-      </c>
-      <c r="E95" s="71" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
-      <c r="A96" s="69" t="s">
-        <v>156</v>
-      </c>
-      <c r="B96" s="71" t="n">
-        <v>426877.46</v>
-      </c>
-      <c r="C96" s="71" t="s">
-        <v>157</v>
-      </c>
-      <c r="D96" s="71" t="s">
-        <v>147</v>
-      </c>
-      <c r="E96" s="71" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5">
-      <c r="A97" s="69" t="s">
+      <c r="D102" s="72" t="s">
+        <v>148</v>
+      </c>
+      <c r="E102" s="72" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" s="70" t="s">
+        <v>169</v>
+      </c>
+      <c r="B103" s="72" t="n">
+        <v>434588.92</v>
+      </c>
+      <c r="C103" s="72" t="s">
         <v>158</v>
       </c>
-      <c r="B97" s="71" t="n">
-        <v>204602.5</v>
-      </c>
-      <c r="C97" s="71" t="s">
-        <v>159</v>
-      </c>
-      <c r="D97" s="71" t="s">
-        <v>147</v>
-      </c>
-      <c r="E97" s="71" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
-      <c r="A98" s="69" t="s">
-        <v>160</v>
-      </c>
-      <c r="B98" s="71" t="n">
-        <v>160314.72</v>
-      </c>
-      <c r="C98" s="71" t="s">
-        <v>161</v>
-      </c>
-      <c r="D98" s="71" t="s">
-        <v>147</v>
-      </c>
-      <c r="E98" s="71" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
-      <c r="A99" s="69" t="s">
-        <v>162</v>
-      </c>
-      <c r="B99" s="71" t="n">
-        <v>554309.69</v>
-      </c>
-      <c r="C99" s="71" t="s">
-        <v>163</v>
-      </c>
-      <c r="D99" s="71" t="s">
-        <v>147</v>
-      </c>
-      <c r="E99" s="71" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5">
-      <c r="A100" s="69" t="s">
-        <v>164</v>
-      </c>
-      <c r="B100" s="71" t="n">
-        <v>74602.04</v>
-      </c>
-      <c r="C100" s="71" t="s">
-        <v>165</v>
-      </c>
-      <c r="D100" s="71" t="s">
-        <v>147</v>
-      </c>
-      <c r="E100" s="71" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5">
-      <c r="A101" s="62" t="s">
-        <v>166</v>
-      </c>
-      <c r="B101" s="64" t="n">
-        <v>3499730.96</v>
-      </c>
-      <c r="C101" s="66" t="s">
+      <c r="D103" s="72" t="s">
+        <v>148</v>
+      </c>
+      <c r="E103" s="72" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" s="70" t="s">
+        <v>170</v>
+      </c>
+      <c r="B104" s="72" t="n">
+        <v>480334.84</v>
+      </c>
+      <c r="C104" s="72" t="s">
+        <v>171</v>
+      </c>
+      <c r="D104" s="72" t="s">
+        <v>148</v>
+      </c>
+      <c r="E104" s="72" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" s="70" t="s">
+        <v>172</v>
+      </c>
+      <c r="B105" s="72" t="n">
+        <v>406944.8</v>
+      </c>
+      <c r="C105" s="72" t="s">
+        <v>173</v>
+      </c>
+      <c r="D105" s="72" t="s">
+        <v>148</v>
+      </c>
+      <c r="E105" s="72" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" s="70" t="s">
+        <v>174</v>
+      </c>
+      <c r="B106" s="72" t="n">
+        <v>74164.59</v>
+      </c>
+      <c r="C106" s="72" t="s">
+        <v>175</v>
+      </c>
+      <c r="D106" s="72" t="s">
+        <v>148</v>
+      </c>
+      <c r="E106" s="72" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" s="70" t="s">
+        <v>176</v>
+      </c>
+      <c r="B107" s="72" t="n">
+        <v>89989.11</v>
+      </c>
+      <c r="C107" s="72" t="s">
+        <v>177</v>
+      </c>
+      <c r="D107" s="72" t="s">
+        <v>148</v>
+      </c>
+      <c r="E107" s="72" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" s="70" t="s">
+        <v>178</v>
+      </c>
+      <c r="B108" s="72" t="n">
+        <v>125202.48</v>
+      </c>
+      <c r="C108" s="72" t="s">
+        <v>179</v>
+      </c>
+      <c r="D108" s="72" t="s">
+        <v>148</v>
+      </c>
+      <c r="E108" s="72" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" s="70" t="s">
+        <v>180</v>
+      </c>
+      <c r="B109" s="72" t="n">
+        <v>83972.01</v>
+      </c>
+      <c r="C109" s="72" t="s">
+        <v>181</v>
+      </c>
+      <c r="D109" s="72" t="s">
+        <v>148</v>
+      </c>
+      <c r="E109" s="72" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" s="70" t="s">
+        <v>182</v>
+      </c>
+      <c r="B110" s="72" t="n">
+        <v>440084.26</v>
+      </c>
+      <c r="C110" s="72" t="s">
+        <v>183</v>
+      </c>
+      <c r="D110" s="72" t="s">
+        <v>148</v>
+      </c>
+      <c r="E110" s="72" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" s="70" t="s">
+        <v>184</v>
+      </c>
+      <c r="B111" s="72" t="n">
+        <v>205638.98</v>
+      </c>
+      <c r="C111" s="72" t="s">
+        <v>185</v>
+      </c>
+      <c r="D111" s="72" t="s">
+        <v>148</v>
+      </c>
+      <c r="E111" s="72" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" s="70" t="s">
+        <v>186</v>
+      </c>
+      <c r="B112" s="72" t="n">
+        <v>1055892.24</v>
+      </c>
+      <c r="C112" s="72" t="s">
+        <v>187</v>
+      </c>
+      <c r="D112" s="72" t="s">
+        <v>148</v>
+      </c>
+      <c r="E112" s="72" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" s="63" t="s">
+        <v>188</v>
+      </c>
+      <c r="B113" s="65" t="n">
+        <v>3390238.47</v>
+      </c>
+      <c r="C113" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="D101" s="66" t="s">
-        <v>26</v>
-      </c>
-      <c r="E101" s="66" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
-      <c r="A102" s="69" t="s">
-        <v>167</v>
-      </c>
-      <c r="B102" s="71" t="n">
-        <v>102918.73</v>
-      </c>
-      <c r="C102" s="71" t="s">
-        <v>151</v>
-      </c>
-      <c r="D102" s="71" t="s">
-        <v>147</v>
-      </c>
-      <c r="E102" s="71" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
-      <c r="A103" s="69" t="s">
-        <v>168</v>
-      </c>
-      <c r="B103" s="71" t="n">
-        <v>434588.92</v>
-      </c>
-      <c r="C103" s="71" t="s">
-        <v>157</v>
-      </c>
-      <c r="D103" s="71" t="s">
-        <v>147</v>
-      </c>
-      <c r="E103" s="71" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
-      <c r="A104" s="69" t="s">
-        <v>169</v>
-      </c>
-      <c r="B104" s="71" t="n">
-        <v>480334.84</v>
-      </c>
-      <c r="C104" s="71" t="s">
-        <v>170</v>
-      </c>
-      <c r="D104" s="71" t="s">
-        <v>147</v>
-      </c>
-      <c r="E104" s="71" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5">
-      <c r="A105" s="69" t="s">
-        <v>171</v>
-      </c>
-      <c r="B105" s="71" t="n">
-        <v>406944.8</v>
-      </c>
-      <c r="C105" s="71" t="s">
-        <v>172</v>
-      </c>
-      <c r="D105" s="71" t="s">
-        <v>147</v>
-      </c>
-      <c r="E105" s="71" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5">
-      <c r="A106" s="69" t="s">
-        <v>173</v>
-      </c>
-      <c r="B106" s="71" t="n">
-        <v>74164.59</v>
-      </c>
-      <c r="C106" s="71" t="s">
-        <v>174</v>
-      </c>
-      <c r="D106" s="71" t="s">
-        <v>147</v>
-      </c>
-      <c r="E106" s="71" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5">
-      <c r="A107" s="69" t="s">
-        <v>175</v>
-      </c>
-      <c r="B107" s="71" t="n">
-        <v>89989.11</v>
-      </c>
-      <c r="C107" s="71" t="s">
-        <v>176</v>
-      </c>
-      <c r="D107" s="71" t="s">
-        <v>147</v>
-      </c>
-      <c r="E107" s="71" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5">
-      <c r="A108" s="69" t="s">
-        <v>177</v>
-      </c>
-      <c r="B108" s="71" t="n">
-        <v>125202.48</v>
-      </c>
-      <c r="C108" s="71" t="s">
-        <v>178</v>
-      </c>
-      <c r="D108" s="71" t="s">
-        <v>147</v>
-      </c>
-      <c r="E108" s="71" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5">
-      <c r="A109" s="69" t="s">
-        <v>179</v>
-      </c>
-      <c r="B109" s="71" t="n">
-        <v>83972.01</v>
-      </c>
-      <c r="C109" s="71" t="s">
-        <v>180</v>
-      </c>
-      <c r="D109" s="71" t="s">
-        <v>147</v>
-      </c>
-      <c r="E109" s="71" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5">
-      <c r="A110" s="69" t="s">
-        <v>181</v>
-      </c>
-      <c r="B110" s="71" t="n">
-        <v>440084.26</v>
-      </c>
-      <c r="C110" s="71" t="s">
-        <v>182</v>
-      </c>
-      <c r="D110" s="71" t="s">
-        <v>147</v>
-      </c>
-      <c r="E110" s="71" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5">
-      <c r="A111" s="69" t="s">
-        <v>183</v>
-      </c>
-      <c r="B111" s="71" t="n">
-        <v>205638.98</v>
-      </c>
-      <c r="C111" s="71" t="s">
-        <v>184</v>
-      </c>
-      <c r="D111" s="71" t="s">
-        <v>147</v>
-      </c>
-      <c r="E111" s="71" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5">
-      <c r="A112" s="69" t="s">
-        <v>185</v>
-      </c>
-      <c r="B112" s="71" t="n">
-        <v>1055892.24</v>
-      </c>
-      <c r="C112" s="71" t="s">
-        <v>186</v>
-      </c>
-      <c r="D112" s="71" t="s">
-        <v>147</v>
-      </c>
-      <c r="E112" s="71" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5">
-      <c r="A113" s="62" t="s">
-        <v>187</v>
-      </c>
-      <c r="B113" s="64" t="n">
-        <v>4350203.7</v>
-      </c>
-      <c r="C113" s="66" t="s">
+      <c r="D113" s="67" t="s">
+        <v>26</v>
+      </c>
+      <c r="E113" s="67" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" s="70" t="s">
+        <v>189</v>
+      </c>
+      <c r="B114" s="72" t="n">
+        <v>2179330.41</v>
+      </c>
+      <c r="C114" s="72" t="s">
+        <v>190</v>
+      </c>
+      <c r="D114" s="72" t="s">
+        <v>132</v>
+      </c>
+      <c r="E114" s="72" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115" s="70" t="s">
+        <v>191</v>
+      </c>
+      <c r="B115" s="72" t="n">
+        <v>589694.22</v>
+      </c>
+      <c r="C115" s="72" t="s">
+        <v>192</v>
+      </c>
+      <c r="D115" s="72" t="s">
+        <v>132</v>
+      </c>
+      <c r="E115" s="72" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" s="70" t="s">
+        <v>193</v>
+      </c>
+      <c r="B116" s="72" t="n">
+        <v>481987.83</v>
+      </c>
+      <c r="C116" s="72" t="s">
+        <v>194</v>
+      </c>
+      <c r="D116" s="72" t="s">
+        <v>132</v>
+      </c>
+      <c r="E116" s="72" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117" s="70" t="s">
+        <v>195</v>
+      </c>
+      <c r="B117" s="72" t="n">
+        <v>74538.63</v>
+      </c>
+      <c r="C117" s="72" t="s">
+        <v>196</v>
+      </c>
+      <c r="D117" s="72" t="s">
+        <v>132</v>
+      </c>
+      <c r="E117" s="72" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118" s="70" t="s">
+        <v>197</v>
+      </c>
+      <c r="B118" s="72" t="n">
+        <v>64687.38</v>
+      </c>
+      <c r="C118" s="72" t="s">
+        <v>198</v>
+      </c>
+      <c r="D118" s="72" t="s">
+        <v>132</v>
+      </c>
+      <c r="E118" s="72" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119" s="63" t="s">
+        <v>199</v>
+      </c>
+      <c r="B119" s="65" t="n">
+        <v>1225254</v>
+      </c>
+      <c r="C119" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="D113" s="66" t="s">
-        <v>26</v>
-      </c>
-      <c r="E113" s="66" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5">
-      <c r="A114" s="69" t="s">
-        <v>188</v>
-      </c>
-      <c r="B114" s="71" t="n">
-        <v>959965.23</v>
-      </c>
-      <c r="C114" s="71" t="s">
-        <v>189</v>
-      </c>
-      <c r="D114" s="71" t="s">
-        <v>131</v>
-      </c>
-      <c r="E114" s="71" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5">
-      <c r="A115" s="69" t="s">
-        <v>190</v>
-      </c>
-      <c r="B115" s="71" t="n">
-        <v>2179330.41</v>
-      </c>
-      <c r="C115" s="71" t="s">
-        <v>191</v>
-      </c>
-      <c r="D115" s="71" t="s">
-        <v>131</v>
-      </c>
-      <c r="E115" s="71" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5">
-      <c r="A116" s="69" t="s">
-        <v>192</v>
-      </c>
-      <c r="B116" s="71" t="n">
-        <v>589694.22</v>
-      </c>
-      <c r="C116" s="71" t="s">
-        <v>193</v>
-      </c>
-      <c r="D116" s="71" t="s">
-        <v>131</v>
-      </c>
-      <c r="E116" s="71" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5">
-      <c r="A117" s="69" t="s">
-        <v>194</v>
-      </c>
-      <c r="B117" s="71" t="n">
-        <v>481987.83</v>
-      </c>
-      <c r="C117" s="71" t="s">
-        <v>195</v>
-      </c>
-      <c r="D117" s="71" t="s">
-        <v>131</v>
-      </c>
-      <c r="E117" s="71" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5">
-      <c r="A118" s="69" t="s">
-        <v>196</v>
-      </c>
-      <c r="B118" s="71" t="n">
-        <v>74538.63</v>
-      </c>
-      <c r="C118" s="71" t="s">
-        <v>197</v>
-      </c>
-      <c r="D118" s="71" t="s">
-        <v>131</v>
-      </c>
-      <c r="E118" s="71" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5">
-      <c r="A119" s="69" t="s">
-        <v>198</v>
-      </c>
-      <c r="B119" s="71" t="n">
-        <v>64687.38</v>
-      </c>
-      <c r="C119" s="71" t="s">
-        <v>199</v>
-      </c>
-      <c r="D119" s="71" t="s">
-        <v>131</v>
-      </c>
-      <c r="E119" s="71" t="s">
-        <v>22</v>
+      <c r="D119" s="67" t="s">
+        <v>26</v>
+      </c>
+      <c r="E119" s="67" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="120" spans="1:5">
-      <c r="A120" s="62" t="s">
+      <c r="A120" s="70" t="s">
         <v>200</v>
       </c>
-      <c r="B120" s="64" t="n">
-        <v>1981554</v>
-      </c>
-      <c r="C120" s="66" t="s">
+      <c r="B120" s="72" t="n">
+        <v>202964</v>
+      </c>
+      <c r="C120" s="72" t="s">
+        <v>201</v>
+      </c>
+      <c r="D120" s="72" t="s">
+        <v>148</v>
+      </c>
+      <c r="E120" s="72" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121" s="70" t="s">
+        <v>202</v>
+      </c>
+      <c r="B121" s="72" t="n">
+        <v>1022290</v>
+      </c>
+      <c r="C121" s="72" t="s">
+        <v>203</v>
+      </c>
+      <c r="D121" s="72" t="s">
+        <v>148</v>
+      </c>
+      <c r="E121" s="72" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123" s="38" t="s">
+        <v>205</v>
+      </c>
+      <c r="B123" s="38"/>
+      <c r="C123" s="38"/>
+      <c r="D123" s="38"/>
+      <c r="E123" s="38"/>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="B124" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="C124" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="D124" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="E124" s="40" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125" s="70" t="s">
+        <v>206</v>
+      </c>
+      <c r="B125" s="72" t="n">
+        <v>0</v>
+      </c>
+      <c r="C125" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="D120" s="66" t="s">
-        <v>26</v>
-      </c>
-      <c r="E120" s="66" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5">
-      <c r="A121" s="69" t="s">
-        <v>201</v>
-      </c>
-      <c r="B121" s="71" t="n">
-        <v>202964</v>
-      </c>
-      <c r="C121" s="71" t="s">
-        <v>202</v>
-      </c>
-      <c r="D121" s="71" t="s">
-        <v>147</v>
-      </c>
-      <c r="E121" s="71" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5">
-      <c r="A122" s="69" t="s">
-        <v>203</v>
-      </c>
-      <c r="B122" s="71" t="n">
-        <v>1022290</v>
-      </c>
-      <c r="C122" s="71" t="s">
-        <v>204</v>
-      </c>
-      <c r="D122" s="71" t="s">
-        <v>147</v>
-      </c>
-      <c r="E122" s="71" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5">
-      <c r="A123" s="69" t="s">
-        <v>206</v>
-      </c>
-      <c r="B123" s="71" t="n">
-        <v>756300</v>
-      </c>
-      <c r="C123" s="71" t="s">
+      <c r="D125" s="72" t="s">
+        <v>21</v>
+      </c>
+      <c r="E125" s="72" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126" s="70" t="s">
         <v>207</v>
       </c>
-      <c r="D123" s="71" t="s">
-        <v>147</v>
-      </c>
-      <c r="E123" s="71" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5">
-      <c r="A125" s="37" t="s">
+      <c r="B126" s="72" t="n">
+        <v>105589224.49</v>
+      </c>
+      <c r="C126" s="72" t="s">
+        <v>120</v>
+      </c>
+      <c r="D126" s="72" t="s">
         <v>208</v>
       </c>
-      <c r="B125" s="37"/>
-      <c r="C125" s="37"/>
-      <c r="D125" s="37"/>
-      <c r="E125" s="37"/>
-    </row>
-    <row r="126" spans="1:5">
-      <c r="A126" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="B126" s="39" t="s">
-        <v>4</v>
-      </c>
-      <c r="C126" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="D126" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="E126" s="39" t="s">
-        <v>19</v>
+      <c r="E126" s="72" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="127" spans="1:5">
-      <c r="A127" s="69" t="s">
+      <c r="A127" s="80" t="s">
         <v>209</v>
       </c>
-      <c r="B127" s="71" t="n">
-        <v>0</v>
-      </c>
-      <c r="C127" s="71" t="s">
-        <v>32</v>
-      </c>
-      <c r="D127" s="71" t="s">
-        <v>21</v>
-      </c>
-      <c r="E127" s="71" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5">
-      <c r="A128" s="69" t="s">
+      <c r="B127" s="83" t="n">
+        <v>105589224.49</v>
+      </c>
+      <c r="C127" s="83" t="s">
+        <v>120</v>
+      </c>
+      <c r="D127" s="83" t="s">
         <v>210</v>
       </c>
-      <c r="B128" s="71" t="n">
-        <v>105589224.49</v>
-      </c>
-      <c r="C128" s="71" t="s">
-        <v>120</v>
-      </c>
-      <c r="D128" s="71" t="s">
-        <v>211</v>
-      </c>
-      <c r="E128" s="71" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5">
-      <c r="A129" s="79" t="s">
-        <v>212</v>
-      </c>
-      <c r="B129" s="82" t="n">
-        <v>105589224.49</v>
-      </c>
-      <c r="C129" s="82" t="s">
-        <v>120</v>
-      </c>
-      <c r="D129" s="82" t="s">
-        <v>213</v>
-      </c>
-      <c r="E129" s="82" t="s">
+      <c r="E127" s="83" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3157,7 +3117,7 @@
     <mergeCell ref="A27:E27"/>
     <mergeCell ref="A45:E45"/>
     <mergeCell ref="A80:E80"/>
-    <mergeCell ref="A125:E125"/>
+    <mergeCell ref="A123:E123"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3192,46 +3152,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="14" t="s">
-        <v>214</v>
+      <c r="A1" s="15" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="15" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="20" t="n">
+      <c r="C4" s="21" t="n">
         <v>6.86</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="25" t="n">
+      <c r="B5" s="26" t="n">
         <v>7863461</v>
       </c>
-      <c r="C5" s="26"/>
+      <c r="C5" s="27"/>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="33" t="n">
+      <c r="B6" s="34" t="n">
         <v>1146277.11</v>
       </c>
-      <c r="C6" s="34"/>
+      <c r="C6" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="2">
